--- a/src/dashboard/Tables_EU7_WindSolarLoad.xlsx
+++ b/src/dashboard/Tables_EU7_WindSolarLoad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="19200" windowHeight="4770" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="15312" windowHeight="3444" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="EU7" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="WindGenx" sheetId="4" r:id="rId5"/>
     <sheet name="Thresholded Distributions" sheetId="7" r:id="rId6"/>
     <sheet name="Extra Regimes" sheetId="8" r:id="rId7"/>
+    <sheet name="Summer Regimes" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="79">
   <si>
     <t>AR</t>
   </si>
@@ -321,6 +322,70 @@
   <si>
     <t>Load Anomaly</t>
   </si>
+  <si>
+    <t>Meteo France</t>
+  </si>
+  <si>
+    <t>Cassou*</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Zonal</t>
+  </si>
+  <si>
+    <t>METEO-FRANCE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wind L.F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Solar L.F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>GMM-2</t>
+  </si>
 </sst>
 </file>
 
@@ -332,7 +397,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +532,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,8 +756,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC1C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9787A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDFE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1126,6 +1252,174 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1172,7 +1466,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1341,6 +1635,80 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="41" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="42" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="44" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="40" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="41" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="42" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="44" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="41" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="42" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="43" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="43" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="41" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="42" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="45" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,12 +1844,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1495,6 +1857,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,6 +1885,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1847,86 +2224,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="G1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="128" t="s">
+      <c r="C1" s="157"/>
+      <c r="D1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="128" t="s">
+      <c r="L1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="129" t="s">
+      <c r="M1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="128" t="s">
+      <c r="N1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="129" t="s">
+      <c r="O1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="129" t="s">
+      <c r="Q1" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="128" t="s">
+      <c r="R1" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="129" t="s">
+      <c r="S1" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="124" t="s">
+      <c r="U1" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="122" t="s">
+      <c r="V1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="122" t="s">
+      <c r="W1" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="122" t="s">
+      <c r="X1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="122" t="s">
+      <c r="Y1" s="150" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130"/>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="158"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +2328,7 @@
       <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="126"/>
+      <c r="K2" s="154"/>
       <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1976,13 +2353,13 @@
       <c r="S2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="124"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U2" s="152"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="153"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2430,7 @@
         <v>-0.159397601009579</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2501,7 @@
         <v>-4.9215527568109797E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2572,7 @@
         <v>-9.7530308525009796E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2266,7 +2643,7 @@
         <v>-0.11593279218074599</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2337,7 +2714,7 @@
         <v>-2.7003668296506399E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2408,7 +2785,7 @@
         <v>-0.138593924489817</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2479,86 +2856,86 @@
         <v>-6.5634018885173201E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U10" s="110"/>
       <c r="V10" s="110"/>
       <c r="W10" s="110"/>
       <c r="X10" s="110"/>
       <c r="Y10" s="110"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="128" t="s">
+      <c r="F11" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="128" t="s">
+      <c r="H11" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="129" t="s">
+      <c r="I11" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="126" t="s">
+      <c r="K11" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="128" t="s">
+      <c r="L11" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="129" t="s">
+      <c r="M11" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="128" t="s">
+      <c r="N11" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="129" t="s">
+      <c r="O11" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="P11" s="128" t="s">
+      <c r="P11" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="129" t="s">
+      <c r="Q11" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="R11" s="128" t="s">
+      <c r="R11" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="129" t="s">
+      <c r="S11" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="U11" s="126" t="s">
+      <c r="U11" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="V11" s="122" t="s">
+      <c r="V11" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="W11" s="122" t="s">
+      <c r="W11" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="X11" s="122" t="s">
+      <c r="X11" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="Y11" s="122" t="s">
+      <c r="Y11" s="150" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="159"/>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2583,7 +2960,7 @@
       <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="126"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2608,13 +2985,13 @@
       <c r="S12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="126"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="125"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U12" s="154"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2685,7 +3062,7 @@
         <v>2.40121039224706E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2756,7 +3133,7 @@
         <v>1.16375353718905E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +3204,7 @@
         <v>2.7686014731413602E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +3275,7 @@
         <v>1.7308298263594198E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +3346,7 @@
         <v>1.4500930443633901E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -3040,7 +3417,7 @@
         <v>1.4289050823375201E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -3111,86 +3488,86 @@
         <v>-2.95109162118602E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U20" s="110"/>
       <c r="V20" s="110"/>
       <c r="W20" s="110"/>
       <c r="X20" s="110"/>
       <c r="Y20" s="110"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="127" t="s">
+    <row r="21" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="129" t="s">
+      <c r="E21" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="128" t="s">
+      <c r="F21" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="128" t="s">
+      <c r="H21" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="129" t="s">
+      <c r="I21" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="127" t="s">
+      <c r="K21" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="128" t="s">
+      <c r="L21" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="129" t="s">
+      <c r="M21" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="N21" s="128" t="s">
+      <c r="N21" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="129" t="s">
+      <c r="O21" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="P21" s="128" t="s">
+      <c r="P21" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="129" t="s">
+      <c r="Q21" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="128" t="s">
+      <c r="R21" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="129" t="s">
+      <c r="S21" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="127" t="s">
+      <c r="U21" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="V21" s="122" t="s">
+      <c r="V21" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="W21" s="122" t="s">
+      <c r="W21" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="X21" s="122" t="s">
+      <c r="X21" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="Y21" s="122" t="s">
+      <c r="Y21" s="150" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="127"/>
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="155"/>
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
@@ -3215,7 +3592,7 @@
       <c r="I22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="132"/>
+      <c r="K22" s="160"/>
       <c r="L22" s="4" t="s">
         <v>11</v>
       </c>
@@ -3240,13 +3617,13 @@
       <c r="S22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="127"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="123"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="123"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="155"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -3317,7 +3694,7 @@
         <v>11.03113593</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -3388,7 +3765,7 @@
         <v>31.310853730000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3459,7 +3836,7 @@
         <v>72.66125658</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3907,7 @@
         <v>66.713070149999993</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -3601,7 +3978,7 @@
         <v>38.473178400000002</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -3672,7 +4049,7 @@
         <v>14.27944512</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -4011,7 +4388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29 C29 G29 I29">
+  <conditionalFormatting sqref="C29 E29 G29 I29">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -4043,7 +4420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23 M23 Q23 S23">
+  <conditionalFormatting sqref="M23 O23 Q23 S23">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4053,7 +4430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24 N24 P24 R24">
+  <conditionalFormatting sqref="N24 L24 P24 R24">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4063,7 +4440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24 M24 Q24 S24">
+  <conditionalFormatting sqref="M24 O24 Q24 S24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4103,7 +4480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26 M26 Q26 S26">
+  <conditionalFormatting sqref="M26 O26 Q26 S26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4133,7 +4510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28 N28 P28 R28">
+  <conditionalFormatting sqref="N28 L28 P28 R28">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -4298,16 +4675,16 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="88" t="s">
         <v>52</v>
       </c>
@@ -4327,7 +4704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
@@ -4347,7 +4724,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="90" t="s">
         <v>1</v>
       </c>
@@ -4367,7 +4744,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="90" t="s">
         <v>2</v>
       </c>
@@ -4387,7 +4764,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91" t="s">
         <v>3</v>
       </c>
@@ -4467,93 +4844,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O6"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="35"/>
-    <col min="16" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="35"/>
+    <col min="16" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:41" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="128" t="s">
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="128" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="129"/>
-      <c r="O1" s="127" t="s">
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="157"/>
+      <c r="O1" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="128" t="s">
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="128" t="s">
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="129"/>
-      <c r="AC1" s="127" t="s">
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="157"/>
+      <c r="AC1" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="128" t="s">
+      <c r="AD1" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="128" t="s">
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="157"/>
+      <c r="AH1" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="133"/>
-      <c r="AK1" s="129"/>
-      <c r="AL1" s="128" t="s">
+      <c r="AI1" s="161"/>
+      <c r="AJ1" s="161"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="133"/>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="129"/>
-    </row>
-    <row r="2" spans="1:41" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="127"/>
+      <c r="AM1" s="161"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="157"/>
+    </row>
+    <row r="2" spans="1:41" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="155"/>
       <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
@@ -4590,7 +4967,7 @@
       <c r="M2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="127"/>
+      <c r="O2" s="155"/>
       <c r="P2" s="24" t="s">
         <v>25</v>
       </c>
@@ -4627,7 +5004,7 @@
       <c r="AA2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="127"/>
+      <c r="AC2" s="155"/>
       <c r="AD2" s="24" t="s">
         <v>25</v>
       </c>
@@ -4665,7 +5042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4796,7 +5173,7 @@
         <v>-7.6284972564529957E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -4927,7 +5304,7 @@
         <v>-6.6588650166509999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -5058,7 +5435,7 @@
         <v>1.4013678687884029E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -5189,7 +5566,7 @@
         <v>1.6301534893773499E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="O7" s="27" t="s">
         <v>33</v>
       </c>
@@ -5230,74 +5607,74 @@
         <v>5.2316379412236498E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127" t="s">
+    <row r="8" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="128" t="s">
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="128" t="s">
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="129"/>
-      <c r="O9" s="127" t="s">
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="157"/>
+      <c r="O9" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="128" t="s">
+      <c r="P9" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="128" t="s">
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="128" t="s">
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="129"/>
-      <c r="AC9" s="127" t="s">
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="157"/>
+      <c r="AC9" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="AD9" s="128" t="s">
+      <c r="AD9" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="133"/>
-      <c r="AG9" s="129"/>
-      <c r="AH9" s="128" t="s">
+      <c r="AE9" s="161"/>
+      <c r="AF9" s="161"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="AI9" s="133"/>
-      <c r="AJ9" s="133"/>
-      <c r="AK9" s="129"/>
-      <c r="AL9" s="128" t="s">
+      <c r="AI9" s="161"/>
+      <c r="AJ9" s="161"/>
+      <c r="AK9" s="157"/>
+      <c r="AL9" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AM9" s="133"/>
-      <c r="AN9" s="133"/>
-      <c r="AO9" s="129"/>
-    </row>
-    <row r="10" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
+      <c r="AM9" s="161"/>
+      <c r="AN9" s="161"/>
+      <c r="AO9" s="157"/>
+    </row>
+    <row r="10" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="155"/>
       <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
@@ -5334,7 +5711,7 @@
       <c r="M10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="127"/>
+      <c r="O10" s="155"/>
       <c r="P10" s="24" t="s">
         <v>25</v>
       </c>
@@ -5371,7 +5748,7 @@
       <c r="AA10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AC10" s="127"/>
+      <c r="AC10" s="155"/>
       <c r="AD10" s="24" t="s">
         <v>25</v>
       </c>
@@ -5409,7 +5786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -5540,7 +5917,7 @@
         <v>-4.9833049732105061E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -5671,7 +6048,7 @@
         <v>-1.15654001525866E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -5802,7 +6179,7 @@
         <v>-1.5666172325340399E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -5933,7 +6310,7 @@
         <v>2.5782557761437702E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="O15" s="27" t="s">
         <v>33</v>
       </c>
@@ -5974,53 +6351,53 @@
         <v>8.6641417184186303E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="15:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O17" s="127" t="s">
+    <row r="16" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="15:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O17" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="128" t="s">
+      <c r="P17" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="128" t="s">
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="129"/>
-      <c r="X17" s="128" t="s">
+      <c r="U17" s="161"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="157"/>
+      <c r="X17" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="133"/>
-      <c r="Z17" s="133"/>
-      <c r="AA17" s="129"/>
-      <c r="AC17" s="127" t="s">
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="157"/>
+      <c r="AC17" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="AD17" s="128" t="s">
+      <c r="AD17" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="AE17" s="133"/>
-      <c r="AF17" s="133"/>
-      <c r="AG17" s="129"/>
-      <c r="AH17" s="128" t="s">
+      <c r="AE17" s="161"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="157"/>
+      <c r="AH17" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="AI17" s="133"/>
-      <c r="AJ17" s="133"/>
-      <c r="AK17" s="129"/>
-      <c r="AL17" s="128" t="s">
+      <c r="AI17" s="161"/>
+      <c r="AJ17" s="161"/>
+      <c r="AK17" s="157"/>
+      <c r="AL17" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AM17" s="133"/>
-      <c r="AN17" s="133"/>
-      <c r="AO17" s="129"/>
-    </row>
-    <row r="18" spans="15:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O18" s="127"/>
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="161"/>
+      <c r="AO17" s="157"/>
+    </row>
+    <row r="18" spans="15:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="155"/>
       <c r="P18" s="24" t="s">
         <v>25</v>
       </c>
@@ -6057,7 +6434,7 @@
       <c r="AA18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AC18" s="127"/>
+      <c r="AC18" s="155"/>
       <c r="AD18" s="24" t="s">
         <v>25</v>
       </c>
@@ -6095,7 +6472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="15:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="15:41" x14ac:dyDescent="0.3">
       <c r="O19" s="33" t="s">
         <v>0</v>
       </c>
@@ -6187,7 +6564,7 @@
         <v>8.2563686377751938E-3</v>
       </c>
     </row>
-    <row r="20" spans="15:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="15:41" x14ac:dyDescent="0.3">
       <c r="O20" s="34" t="s">
         <v>1</v>
       </c>
@@ -6279,7 +6656,7 @@
         <v>3.9150999016249882E-4</v>
       </c>
     </row>
-    <row r="21" spans="15:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="15:41" x14ac:dyDescent="0.3">
       <c r="O21" s="34" t="s">
         <v>2</v>
       </c>
@@ -6371,7 +6748,7 @@
         <v>2.5144716859655941E-3</v>
       </c>
     </row>
-    <row r="22" spans="15:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="15:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O22" s="32" t="s">
         <v>3</v>
       </c>
@@ -6463,7 +6840,7 @@
         <v>-3.7784905046380629E-4</v>
       </c>
     </row>
-    <row r="23" spans="15:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="15:41" x14ac:dyDescent="0.3">
       <c r="O23" s="27" t="s">
         <v>33</v>
       </c>
@@ -7382,12 +7759,12 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="76">
         <v>2001</v>
       </c>
@@ -7452,7 +7829,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -7520,7 +7897,7 @@
         <v>10.125</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -7588,7 +7965,7 @@
         <v>48.539000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>38</v>
       </c>
@@ -7656,7 +8033,7 @@
         <v>44.874485999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
@@ -7706,7 +8083,7 @@
         <v>113.181263</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>40</v>
       </c>
@@ -7772,8 +8149,8 @@
         <v>2875.9074959999998</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="76">
         <v>2001</v>
       </c>
@@ -7838,7 +8215,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="79" t="s">
         <v>1</v>
       </c>
@@ -7906,7 +8283,7 @@
         <v>10.125</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
         <v>2</v>
       </c>
@@ -7974,7 +8351,7 @@
         <v>48.539000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
         <v>38</v>
       </c>
@@ -8063,7 +8440,7 @@
         <v>-14.026513238095248</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>39</v>
       </c>
@@ -8125,7 +8502,7 @@
         <v>-11.343908749999983</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="81" t="s">
         <v>40</v>
       </c>
@@ -8280,35 +8657,35 @@
       <selection activeCell="A22" sqref="A22:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="138" t="s">
+      <c r="C1" s="167"/>
+      <c r="D1" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="139"/>
-      <c r="F1" s="138" t="s">
+      <c r="E1" s="167"/>
+      <c r="F1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="138" t="s">
+      <c r="G1" s="167"/>
+      <c r="H1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="139"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146"/>
+      <c r="I1" s="167"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="174"/>
       <c r="B2" s="1">
         <v>2012</v>
       </c>
@@ -8340,8 +8717,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="82">
@@ -8368,37 +8745,37 @@
       <c r="I3" s="47">
         <v>0.341167</v>
       </c>
-      <c r="J3" s="147">
+      <c r="J3" s="175">
         <v>0.41163899999999998</v>
       </c>
-      <c r="K3" s="142">
+      <c r="K3" s="170">
         <v>63.143000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="151"/>
-      <c r="B4" s="136">
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="179"/>
+      <c r="B4" s="164">
         <f>AVERAGE(B$3,C$3)</f>
         <v>0.46706749999999997</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="136">
+      <c r="C4" s="165"/>
+      <c r="D4" s="164">
         <f t="shared" ref="D4" si="0">AVERAGE(D$3,E$3)</f>
         <v>0.46923949999999998</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="136">
+      <c r="E4" s="165"/>
+      <c r="F4" s="164">
         <f t="shared" ref="F4" si="1">AVERAGE(F$3,G$3)</f>
         <v>0.323048</v>
       </c>
-      <c r="G4" s="137"/>
-      <c r="H4" s="136">
+      <c r="G4" s="165"/>
+      <c r="H4" s="164">
         <f t="shared" ref="H4" si="2">AVERAGE(H$3,I$3)</f>
         <v>0.32976700000000003</v>
       </c>
-      <c r="I4" s="137"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="143"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="171"/>
       <c r="O4" t="s">
         <v>44</v>
       </c>
@@ -8412,8 +8789,8 @@
         <v>0.17820900000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="179" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="82">
@@ -8440,10 +8817,10 @@
       <c r="I5" s="47">
         <v>0.46046700000000002</v>
       </c>
-      <c r="J5" s="148">
+      <c r="J5" s="176">
         <v>0.49390200000000001</v>
       </c>
-      <c r="K5" s="143">
+      <c r="K5" s="171">
         <v>24.068000000000001</v>
       </c>
       <c r="O5" t="s">
@@ -8456,32 +8833,32 @@
         <v>0.30576500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="151" t="s">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="136">
+      <c r="B6" s="164">
         <f>AVERAGE(B$5,C$5)</f>
         <v>0.54054550000000001</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="136">
+      <c r="C6" s="165"/>
+      <c r="D6" s="164">
         <f t="shared" ref="D6" si="3">AVERAGE(D$5,E$5)</f>
         <v>0.57563949999999997</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="136">
+      <c r="E6" s="165"/>
+      <c r="F6" s="164">
         <f t="shared" ref="F6" si="4">AVERAGE(F$5,G$5)</f>
         <v>0.43102550000000001</v>
       </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="136">
+      <c r="G6" s="165"/>
+      <c r="H6" s="164">
         <f t="shared" ref="H6" si="5">AVERAGE(H$5,I$5)</f>
         <v>0.44254250000000001</v>
       </c>
-      <c r="I6" s="137"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="143"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="171"/>
       <c r="O6" t="s">
         <v>43</v>
       </c>
@@ -8492,8 +8869,8 @@
         <v>0.18528500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="179" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="82">
@@ -8520,10 +8897,10 @@
       <c r="I7" s="48">
         <v>0.195851</v>
       </c>
-      <c r="J7" s="148">
+      <c r="J7" s="176">
         <v>0.22886699999999999</v>
       </c>
-      <c r="K7" s="143">
+      <c r="K7" s="171">
         <v>27.966000000000001</v>
       </c>
       <c r="S7">
@@ -8533,32 +8910,32 @@
         <v>0.30645699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="152" t="s">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="136">
+      <c r="B8" s="164">
         <f>AVERAGE(B$7,C$7)</f>
         <v>0.22019050000000001</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="136">
+      <c r="C8" s="165"/>
+      <c r="D8" s="164">
         <f t="shared" ref="D8" si="6">AVERAGE(D$7,E$7)</f>
         <v>0.25581299999999996</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="136">
+      <c r="E8" s="165"/>
+      <c r="F8" s="164">
         <f t="shared" ref="F8" si="7">AVERAGE(F$7,G$7)</f>
         <v>0.30087799999999998</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="136">
+      <c r="G8" s="165"/>
+      <c r="H8" s="164">
         <f t="shared" ref="H8" si="8">AVERAGE(H$7,I$7)</f>
         <v>0.18703</v>
       </c>
-      <c r="I8" s="137"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="144"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="172"/>
       <c r="S8">
         <v>2015</v>
       </c>
@@ -8566,7 +8943,7 @@
         <v>0.25509599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S9">
         <v>2017</v>
       </c>
@@ -8574,7 +8951,7 @@
         <v>0.195851</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S10">
         <v>2020</v>
       </c>
@@ -8582,26 +8959,26 @@
         <v>0.20516899999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="134" t="s">
+    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="138" t="s">
+      <c r="C11" s="167"/>
+      <c r="D11" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="138" t="s">
+      <c r="E11" s="167"/>
+      <c r="F11" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="138" t="s">
+      <c r="G11" s="167"/>
+      <c r="H11" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="139"/>
+      <c r="I11" s="167"/>
       <c r="S11">
         <v>2021</v>
       </c>
@@ -8609,8 +8986,8 @@
         <v>0.295991</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
+    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="163"/>
       <c r="B12" s="1">
         <v>2012</v>
       </c>
@@ -8645,8 +9022,8 @@
         <v>0.31836700000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="173" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="82">
@@ -8688,28 +9065,28 @@
         <v>0.31238199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140"/>
-      <c r="B14" s="136">
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="168"/>
+      <c r="B14" s="164">
         <f>AVERAGE(B$13,C$13)</f>
         <v>3.4999217755000012</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="136">
+      <c r="C14" s="165"/>
+      <c r="D14" s="164">
         <f t="shared" ref="D14" si="10">AVERAGE(D$13,E$13)</f>
         <v>3.6370683714999998</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="136">
+      <c r="E14" s="165"/>
+      <c r="F14" s="164">
         <f t="shared" ref="F14" si="11">AVERAGE(F$13,G$13)</f>
         <v>-5.5939015129999987</v>
       </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="136">
+      <c r="G14" s="165"/>
+      <c r="H14" s="164">
         <f t="shared" ref="H14" si="12">AVERAGE(H$13,I$13)</f>
         <v>-5.1696436959999978</v>
       </c>
-      <c r="I14" s="137"/>
+      <c r="I14" s="165"/>
       <c r="S14">
         <v>2012</v>
       </c>
@@ -8717,8 +9094,8 @@
         <v>0.507544</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="140" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="168" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="82">
@@ -8760,30 +9137,30 @@
         <v>0.424902</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="140" t="s">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="136">
+      <c r="B16" s="164">
         <f>AVERAGE(B$15,C$15)</f>
         <v>1.1226157580000002</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="136">
+      <c r="C16" s="165"/>
+      <c r="D16" s="164">
         <f t="shared" ref="D16" si="14">AVERAGE(D$15,E$15)</f>
         <v>1.9672581499999993</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="136">
+      <c r="E16" s="165"/>
+      <c r="F16" s="164">
         <f t="shared" ref="F16" si="15">AVERAGE(F$15,G$15)</f>
         <v>-1.5133116020000001</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="136">
+      <c r="G16" s="165"/>
+      <c r="H16" s="164">
         <f t="shared" ref="H16" si="16">AVERAGE(H$15,I$15)</f>
         <v>-1.2361204460000002</v>
       </c>
-      <c r="I16" s="137"/>
+      <c r="I16" s="165"/>
       <c r="S16">
         <v>2015</v>
       </c>
@@ -8791,8 +9168,8 @@
         <v>0.426591</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="140" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="168" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="82">
@@ -8834,30 +9211,30 @@
         <v>0.341167</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="141" t="s">
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="136">
+      <c r="B18" s="164">
         <f>AVERAGE(B$17,C$17)</f>
         <v>-0.24264699899999975</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="136">
+      <c r="C18" s="165"/>
+      <c r="D18" s="164">
         <f t="shared" ref="D18" si="18">AVERAGE(D$17,E$17)</f>
         <v>0.75357183599999988</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="136">
+      <c r="E18" s="165"/>
+      <c r="F18" s="164">
         <f t="shared" ref="F18" si="19">AVERAGE(F$17,G$17)</f>
         <v>2.0138596260000003</v>
       </c>
-      <c r="G18" s="137"/>
-      <c r="H18" s="136">
+      <c r="G18" s="165"/>
+      <c r="H18" s="164">
         <f t="shared" ref="H18" si="20">AVERAGE(H$17,I$17)</f>
         <v>-1.1700135419999995</v>
       </c>
-      <c r="I18" s="137"/>
+      <c r="I18" s="165"/>
       <c r="S18">
         <v>2020</v>
       </c>
@@ -8865,7 +9242,7 @@
         <v>0.51357699999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S19">
         <v>2021</v>
       </c>
@@ -8873,7 +9250,7 @@
         <v>0.33371400000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R20" t="s">
         <v>10</v>
       </c>
@@ -8884,7 +9261,7 @@
         <v>0.424618</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S21">
         <v>2010</v>
       </c>
@@ -8892,26 +9269,26 @@
         <v>0.37543900000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="134" t="s">
+    <row r="22" spans="1:20" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="128" t="s">
+      <c r="C22" s="157"/>
+      <c r="D22" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="128" t="s">
+      <c r="E22" s="157"/>
+      <c r="F22" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="128" t="s">
+      <c r="G22" s="157"/>
+      <c r="H22" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="129"/>
+      <c r="I22" s="157"/>
       <c r="S22">
         <v>2012</v>
       </c>
@@ -8919,8 +9296,8 @@
         <v>0.53699300000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
+    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="163"/>
       <c r="B23" s="87">
         <v>2012</v>
       </c>
@@ -8952,26 +9329,26 @@
         <v>0.58926599999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="136">
+      <c r="B24" s="164">
         <v>3.4999217754999998</v>
       </c>
-      <c r="C24" s="137"/>
-      <c r="D24" s="136">
+      <c r="C24" s="165"/>
+      <c r="D24" s="164">
         <v>3.6370683714999998</v>
       </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="136">
+      <c r="E24" s="165"/>
+      <c r="F24" s="164">
         <v>-5.5939015129999987</v>
       </c>
-      <c r="G24" s="137"/>
-      <c r="H24" s="136">
+      <c r="G24" s="165"/>
+      <c r="H24" s="164">
         <v>-5.1696436959999978</v>
       </c>
-      <c r="I24" s="137"/>
+      <c r="I24" s="165"/>
       <c r="S24">
         <v>2017</v>
       </c>
@@ -8979,26 +9356,26 @@
         <v>0.46046700000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="136">
+      <c r="B25" s="164">
         <v>1.1226157580000002</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="136">
+      <c r="C25" s="165"/>
+      <c r="D25" s="164">
         <v>1.9672581499999993</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="136">
+      <c r="E25" s="165"/>
+      <c r="F25" s="164">
         <v>-1.5133116020000001</v>
       </c>
-      <c r="G25" s="137"/>
-      <c r="H25" s="136">
+      <c r="G25" s="165"/>
+      <c r="H25" s="164">
         <v>-1.2361204460000002</v>
       </c>
-      <c r="I25" s="137"/>
+      <c r="I25" s="165"/>
       <c r="S25">
         <v>2021</v>
       </c>
@@ -9006,26 +9383,26 @@
         <v>0.48661199999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="136">
+      <c r="B26" s="164">
         <v>-0.242646999</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="136">
+      <c r="C26" s="165"/>
+      <c r="D26" s="164">
         <v>0.75357183599999988</v>
       </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="136">
+      <c r="E26" s="165"/>
+      <c r="F26" s="164">
         <v>2.0138596260000003</v>
       </c>
-      <c r="G26" s="137"/>
-      <c r="H26" s="136">
+      <c r="G26" s="165"/>
+      <c r="H26" s="164">
         <v>-1.1700135419999995</v>
       </c>
-      <c r="I26" s="137"/>
+      <c r="I26" s="165"/>
       <c r="R26" t="s">
         <v>5</v>
       </c>
@@ -9033,7 +9410,7 @@
         <v>0.22886699999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>7</v>
       </c>
@@ -9041,7 +9418,7 @@
         <v>0.41163899999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="R28" t="s">
         <v>10</v>
       </c>
@@ -9347,111 +9724,111 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="156" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="156" t="s">
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="157" t="s">
+      <c r="I1" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="158" t="s">
+      <c r="J1" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="156" t="s">
+      <c r="K1" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="157" t="s">
+      <c r="L1" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="157" t="s">
+      <c r="M1" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="158" t="s">
+      <c r="N1" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="156" t="s">
+      <c r="O1" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="157" t="s">
+      <c r="P1" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="157" t="s">
+      <c r="Q1" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="158" t="s">
+      <c r="R1" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="159" t="s">
+      <c r="U1" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="160"/>
-      <c r="W1" s="156" t="s">
+      <c r="V1" s="188"/>
+      <c r="W1" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="157" t="s">
+      <c r="X1" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="157" t="s">
+      <c r="Y1" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="158" t="s">
+      <c r="Z1" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="156" t="s">
+      <c r="AA1" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="157" t="s">
+      <c r="AB1" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="157" t="s">
+      <c r="AC1" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="158" t="s">
+      <c r="AD1" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="156" t="s">
+      <c r="AE1" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="157" t="s">
+      <c r="AF1" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="157" t="s">
+      <c r="AG1" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="158" t="s">
+      <c r="AH1" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="156" t="s">
+      <c r="AI1" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="157" t="s">
+      <c r="AJ1" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="157" t="s">
+      <c r="AK1" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="158" t="s">
+      <c r="AL1" s="186" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161"/>
-      <c r="B2" s="162"/>
+    <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="189"/>
+      <c r="B2" s="190"/>
       <c r="C2" s="99" t="s">
         <v>0</v>
       </c>
@@ -9500,8 +9877,8 @@
       <c r="R2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="161"/>
-      <c r="V2" s="162"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="190"/>
       <c r="W2" s="99" t="s">
         <v>0</v>
       </c>
@@ -9551,8 +9928,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="181" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="102">
@@ -9606,7 +9983,7 @@
       <c r="R3" s="55">
         <v>0.342542646596732</v>
       </c>
-      <c r="U3" s="153" t="s">
+      <c r="U3" s="181" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="102">
@@ -9661,8 +10038,8 @@
         <v>8.3387957877057399</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="154"/>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="182"/>
       <c r="B4" s="103">
         <v>0.3</v>
       </c>
@@ -9714,7 +10091,7 @@
       <c r="R4" s="56">
         <v>3.7269709173106298E-2</v>
       </c>
-      <c r="U4" s="154" t="s">
+      <c r="U4" s="182" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="103">
@@ -9769,8 +10146,8 @@
         <v>8.25965850384841</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="182"/>
       <c r="B5" s="103">
         <v>0.5</v>
       </c>
@@ -9822,7 +10199,7 @@
       <c r="R5" s="56">
         <v>-0.14361501714296199</v>
       </c>
-      <c r="U5" s="154" t="s">
+      <c r="U5" s="182" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="103">
@@ -9877,8 +10254,8 @@
         <v>8.2177594020515397</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="154"/>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="182"/>
       <c r="B6" s="103">
         <v>0.7</v>
       </c>
@@ -9930,7 +10307,7 @@
       <c r="R6" s="56">
         <v>-0.261710531421874</v>
       </c>
-      <c r="U6" s="154" t="s">
+      <c r="U6" s="182" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="103">
@@ -9985,8 +10362,8 @@
         <v>8.1924439924211399</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="154"/>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="182"/>
       <c r="B7" s="103">
         <v>0.9</v>
       </c>
@@ -10038,7 +10415,7 @@
       <c r="R7" s="56">
         <v>-0.64573296530236102</v>
       </c>
-      <c r="U7" s="154" t="s">
+      <c r="U7" s="182" t="s">
         <v>7</v>
       </c>
       <c r="V7" s="103">
@@ -10093,8 +10470,8 @@
         <v>8.1214571660060209</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="154"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="182"/>
       <c r="B8" s="103">
         <v>0.95</v>
       </c>
@@ -10146,7 +10523,7 @@
       <c r="R8" s="56">
         <v>-0.68145029080260799</v>
       </c>
-      <c r="U8" s="154" t="s">
+      <c r="U8" s="182" t="s">
         <v>7</v>
       </c>
       <c r="V8" s="103">
@@ -10201,8 +10578,8 @@
         <v>8.1157469163536504</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
+    <row r="9" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="183"/>
       <c r="B9" s="104">
         <v>0.97</v>
       </c>
@@ -10254,7 +10631,7 @@
       <c r="R9" s="57">
         <v>-0.54847480846627505</v>
       </c>
-      <c r="U9" s="155" t="s">
+      <c r="U9" s="183" t="s">
         <v>7</v>
       </c>
       <c r="V9" s="104">
@@ -10309,8 +10686,8 @@
         <v>8.1377805071306106</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="153" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="181" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="102">
@@ -10364,7 +10741,7 @@
       <c r="R10" s="55">
         <v>3.2105563300304598</v>
       </c>
-      <c r="U10" s="153" t="s">
+      <c r="U10" s="181" t="s">
         <v>6</v>
       </c>
       <c r="V10" s="102">
@@ -10419,8 +10796,8 @@
         <v>7.8180674606405596</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="182" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="103">
@@ -10474,7 +10851,7 @@
       <c r="R11" s="56">
         <v>2.9191268937746999</v>
       </c>
-      <c r="U11" s="154" t="s">
+      <c r="U11" s="182" t="s">
         <v>6</v>
       </c>
       <c r="V11" s="103">
@@ -10529,8 +10906,8 @@
         <v>7.7429674929817098</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="182" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="103">
@@ -10584,7 +10961,7 @@
       <c r="R12" s="56">
         <v>2.7626285398924901</v>
       </c>
-      <c r="U12" s="154" t="s">
+      <c r="U12" s="182" t="s">
         <v>6</v>
       </c>
       <c r="V12" s="103">
@@ -10639,8 +11016,8 @@
         <v>7.7068856566828003</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="182" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="103">
@@ -10694,7 +11071,7 @@
       <c r="R13" s="56">
         <v>2.5692896386572999</v>
       </c>
-      <c r="U13" s="154" t="s">
+      <c r="U13" s="182" t="s">
         <v>6</v>
       </c>
       <c r="V13" s="103">
@@ -10749,8 +11126,8 @@
         <v>7.6664878376033903</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="182" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="103">
@@ -10804,7 +11181,7 @@
       <c r="R14" s="56">
         <v>2.2225529455065298</v>
       </c>
-      <c r="U14" s="154" t="s">
+      <c r="U14" s="182" t="s">
         <v>6</v>
       </c>
       <c r="V14" s="103">
@@ -10859,8 +11236,8 @@
         <v>7.60582005159071</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="182" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="103">
@@ -10914,7 +11291,7 @@
       <c r="R15" s="56">
         <v>1.94928850102116</v>
       </c>
-      <c r="U15" s="154" t="s">
+      <c r="U15" s="182" t="s">
         <v>6</v>
       </c>
       <c r="V15" s="103">
@@ -10969,8 +11346,8 @@
         <v>7.5688648866114203</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155" t="s">
+    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="183" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="104">
@@ -11024,7 +11401,7 @@
       <c r="R16" s="57">
         <v>1.74870296248438</v>
       </c>
-      <c r="U16" s="155" t="s">
+      <c r="U16" s="183" t="s">
         <v>6</v>
       </c>
       <c r="V16" s="104">
@@ -11079,8 +11456,8 @@
         <v>7.5479221677053996</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="153" t="s">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="181" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="102">
@@ -11134,7 +11511,7 @@
       <c r="R17" s="55">
         <v>4.7507324315403201</v>
       </c>
-      <c r="U17" s="153" t="s">
+      <c r="U17" s="181" t="s">
         <v>10</v>
       </c>
       <c r="V17" s="102">
@@ -11189,8 +11566,8 @@
         <v>6.1262002271263496</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="154" t="s">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="182" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="103">
@@ -11244,7 +11621,7 @@
       <c r="R18" s="56">
         <v>4.6685435152229102</v>
       </c>
-      <c r="U18" s="154" t="s">
+      <c r="U18" s="182" t="s">
         <v>10</v>
       </c>
       <c r="V18" s="103">
@@ -11299,8 +11676,8 @@
         <v>6.1027786831069903</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" s="154" t="s">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="182" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="103">
@@ -11354,7 +11731,7 @@
       <c r="R19" s="56">
         <v>4.5469973771914098</v>
       </c>
-      <c r="U19" s="154" t="s">
+      <c r="U19" s="182" t="s">
         <v>10</v>
       </c>
       <c r="V19" s="103">
@@ -11409,8 +11786,8 @@
         <v>6.0700158679690999</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="154" t="s">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="182" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="103">
@@ -11464,7 +11841,7 @@
       <c r="R20" s="56">
         <v>4.3843561944487801</v>
       </c>
-      <c r="U20" s="154" t="s">
+      <c r="U20" s="182" t="s">
         <v>10</v>
       </c>
       <c r="V20" s="103">
@@ -11519,8 +11896,8 @@
         <v>6.02973115942424</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="154" t="s">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="182" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="103">
@@ -11574,7 +11951,7 @@
       <c r="R21" s="56">
         <v>4.0377894061820303</v>
       </c>
-      <c r="U21" s="154" t="s">
+      <c r="U21" s="182" t="s">
         <v>10</v>
       </c>
       <c r="V21" s="103">
@@ -11629,8 +12006,8 @@
         <v>5.95780778107319</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="154" t="s">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="182" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="103">
@@ -11684,7 +12061,7 @@
       <c r="R22" s="56">
         <v>3.8964373322757302</v>
       </c>
-      <c r="U22" s="154" t="s">
+      <c r="U22" s="182" t="s">
         <v>10</v>
       </c>
       <c r="V22" s="103">
@@ -11739,8 +12116,8 @@
         <v>5.9340364060653403</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="155" t="s">
+    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="183" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="104">
@@ -11794,7 +12171,7 @@
       <c r="R23" s="57">
         <v>3.8392755156918099</v>
       </c>
-      <c r="U23" s="155" t="s">
+      <c r="U23" s="183" t="s">
         <v>10</v>
       </c>
       <c r="V23" s="104">
@@ -11849,8 +12226,8 @@
         <v>5.9253539468928098</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="153" t="s">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="181" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="102">
@@ -11904,7 +12281,7 @@
       <c r="R24" s="55">
         <v>6.1876169695831402</v>
       </c>
-      <c r="U24" s="153" t="s">
+      <c r="U24" s="181" t="s">
         <v>5</v>
       </c>
       <c r="V24" s="102">
@@ -11959,8 +12336,8 @@
         <v>4.97352708851498</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25" s="154" t="s">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="182" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="103">
@@ -12014,7 +12391,7 @@
       <c r="R25" s="56">
         <v>6.0813272767879898</v>
       </c>
-      <c r="U25" s="154" t="s">
+      <c r="U25" s="182" t="s">
         <v>5</v>
       </c>
       <c r="V25" s="103">
@@ -12069,8 +12446,8 @@
         <v>4.9594670760570203</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="154" t="s">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="182" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="103">
@@ -12124,7 +12501,7 @@
       <c r="R26" s="56">
         <v>6.0294169695835604</v>
       </c>
-      <c r="U26" s="154" t="s">
+      <c r="U26" s="182" t="s">
         <v>5</v>
       </c>
       <c r="V26" s="103">
@@ -12179,8 +12556,8 @@
         <v>4.9534148812393397</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="154" t="s">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="182" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="103">
@@ -12234,7 +12611,7 @@
       <c r="R27" s="56">
         <v>5.9378598752837704</v>
       </c>
-      <c r="U27" s="154" t="s">
+      <c r="U27" s="182" t="s">
         <v>5</v>
       </c>
       <c r="V27" s="103">
@@ -12289,8 +12666,8 @@
         <v>4.9440508158311802</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="154" t="s">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="182" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="103">
@@ -12344,7 +12721,7 @@
       <c r="R28" s="56">
         <v>5.83895981970959</v>
       </c>
-      <c r="U28" s="154" t="s">
+      <c r="U28" s="182" t="s">
         <v>5</v>
       </c>
       <c r="V28" s="103">
@@ -12399,8 +12776,8 @@
         <v>4.9358242589610004</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="154" t="s">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" s="182" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="103">
@@ -12454,7 +12831,7 @@
       <c r="R29" s="56">
         <v>5.6438328302751204</v>
       </c>
-      <c r="U29" s="154" t="s">
+      <c r="U29" s="182" t="s">
         <v>5</v>
       </c>
       <c r="V29" s="103">
@@ -12509,8 +12886,8 @@
         <v>4.9253807797324001</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="155" t="s">
+    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="183" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="104">
@@ -12564,7 +12941,7 @@
       <c r="R30" s="57">
         <v>5.6468366882432202</v>
       </c>
-      <c r="U30" s="155" t="s">
+      <c r="U30" s="183" t="s">
         <v>5</v>
       </c>
       <c r="V30" s="104">
@@ -12619,104 +12996,104 @@
         <v>4.9254831345655301</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="163" t="s">
+    <row r="31" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="191" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="164"/>
-      <c r="C32" s="156" t="s">
+      <c r="B32" s="192"/>
+      <c r="C32" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="156" t="s">
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="157" t="s">
+      <c r="H32" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="157" t="s">
+      <c r="I32" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="158" t="s">
+      <c r="J32" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="156" t="s">
+      <c r="K32" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="157" t="s">
+      <c r="L32" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="157" t="s">
+      <c r="M32" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="N32" s="158" t="s">
+      <c r="N32" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="156" t="s">
+      <c r="O32" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="P32" s="157" t="s">
+      <c r="P32" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="Q32" s="157" t="s">
+      <c r="Q32" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="R32" s="158" t="s">
+      <c r="R32" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="U32" s="163" t="s">
+      <c r="U32" s="191" t="s">
         <v>58</v>
       </c>
-      <c r="V32" s="164"/>
-      <c r="W32" s="156" t="s">
+      <c r="V32" s="192"/>
+      <c r="W32" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="157"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="156" t="s">
+      <c r="X32" s="185"/>
+      <c r="Y32" s="185"/>
+      <c r="Z32" s="186"/>
+      <c r="AA32" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="AB32" s="157" t="s">
+      <c r="AB32" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AC32" s="157" t="s">
+      <c r="AC32" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="AD32" s="158" t="s">
+      <c r="AD32" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="AE32" s="156" t="s">
+      <c r="AE32" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="AF32" s="157" t="s">
+      <c r="AF32" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="AG32" s="157" t="s">
+      <c r="AG32" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="AH32" s="158" t="s">
+      <c r="AH32" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="AI32" s="156" t="s">
+      <c r="AI32" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="AJ32" s="157" t="s">
+      <c r="AJ32" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="AK32" s="157" t="s">
+      <c r="AK32" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="AL32" s="158" t="s">
+      <c r="AL32" s="186" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="165"/>
-      <c r="B33" s="166"/>
+    <row r="33" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="193"/>
+      <c r="B33" s="194"/>
       <c r="C33" s="99" t="s">
         <v>0</v>
       </c>
@@ -12765,8 +13142,8 @@
       <c r="R33" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="165"/>
-      <c r="V33" s="166"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="194"/>
       <c r="W33" s="99" t="s">
         <v>0</v>
       </c>
@@ -12816,11 +13193,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="138" t="s">
+    <row r="34" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="139"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="50">
         <f>C$9-C$3</f>
         <v>3.2835005785897986E-2</v>
@@ -12885,10 +13262,10 @@
         <f t="shared" si="0"/>
         <v>-0.891017455063007</v>
       </c>
-      <c r="U34" s="138" t="s">
+      <c r="U34" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="V34" s="139"/>
+      <c r="V34" s="167"/>
       <c r="W34" s="50">
         <f>W$9-W$3</f>
         <v>-1.9110089006050268E-3</v>
@@ -12954,11 +13331,11 @@
         <v>-0.2010152805751293</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="138" t="s">
+    <row r="35" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="139"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="52">
         <f>C$16-C$10</f>
         <v>3.1327777430110004E-2</v>
@@ -13023,10 +13400,10 @@
         <f t="shared" si="2"/>
         <v>-1.4618533675460799</v>
       </c>
-      <c r="U35" s="138" t="s">
+      <c r="U35" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="V35" s="139"/>
+      <c r="V35" s="167"/>
       <c r="W35" s="52">
         <f>W$16-W$10</f>
         <v>-7.137350534634046E-3</v>
@@ -13092,11 +13469,11 @@
         <v>-0.27014529293515999</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="138" t="s">
+    <row r="36" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="139"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="52">
         <f>C$23-C$17</f>
         <v>3.0769960853766043E-2</v>
@@ -13161,10 +13538,10 @@
         <f t="shared" si="4"/>
         <v>-0.91145691584851019</v>
       </c>
-      <c r="U36" s="138" t="s">
+      <c r="U36" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="V36" s="139"/>
+      <c r="V36" s="167"/>
       <c r="W36" s="52">
         <f>W$23-W$17</f>
         <v>1.3680726579124031E-2</v>
@@ -13230,11 +13607,11 @@
         <v>-0.20084628023353979</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="138" t="s">
+    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="139"/>
+      <c r="B37" s="167"/>
       <c r="C37" s="53">
         <f>C$30-C$24</f>
         <v>1.4371412056850996E-2</v>
@@ -13299,10 +13676,10 @@
         <f t="shared" si="6"/>
         <v>-0.54078028133992007</v>
       </c>
-      <c r="U37" s="138" t="s">
+      <c r="U37" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="V37" s="139"/>
+      <c r="V37" s="167"/>
       <c r="W37" s="53">
         <f>W$30-W$24</f>
         <v>-8.9236676906709889E-3</v>
@@ -13368,12 +13745,12 @@
         <v>-4.8043953949449936E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="171" t="s">
+    <row r="38" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="166"/>
+      <c r="B39" s="194"/>
       <c r="C39" s="99" t="s">
         <v>0</v>
       </c>
@@ -13387,11 +13764,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="172">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A40" s="198">
         <v>0</v>
       </c>
-      <c r="B40" s="173"/>
+      <c r="B40" s="199"/>
       <c r="C40" s="36">
         <v>682</v>
       </c>
@@ -13405,11 +13782,11 @@
         <v>914</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="167">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A41" s="200">
         <v>0.3</v>
       </c>
-      <c r="B41" s="168"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="39">
         <v>602</v>
       </c>
@@ -13423,11 +13800,11 @@
         <v>779</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="167">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A42" s="200">
         <v>0.5</v>
       </c>
-      <c r="B42" s="168"/>
+      <c r="B42" s="201"/>
       <c r="C42" s="39">
         <v>551</v>
       </c>
@@ -13441,11 +13818,11 @@
         <v>702</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="167">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A43" s="200">
         <v>0.7</v>
       </c>
-      <c r="B43" s="168"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="39">
         <v>488</v>
       </c>
@@ -13459,11 +13836,11 @@
         <v>591</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A44" s="167">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A44" s="200">
         <v>0.9</v>
       </c>
-      <c r="B44" s="168"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="39">
         <v>362</v>
       </c>
@@ -13477,11 +13854,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A45" s="167">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A45" s="200">
         <v>0.95</v>
       </c>
-      <c r="B45" s="168"/>
+      <c r="B45" s="201"/>
       <c r="C45" s="39">
         <v>297</v>
       </c>
@@ -13495,11 +13872,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="169">
+    <row r="46" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="195">
         <v>0.97</v>
       </c>
-      <c r="B46" s="170"/>
+      <c r="B46" s="196"/>
       <c r="C46" s="41">
         <v>254</v>
       </c>
@@ -13515,8 +13892,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
@@ -13535,6 +13910,8 @@
     <mergeCell ref="K32:N32"/>
     <mergeCell ref="O32:R32"/>
     <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="AI32:AL32"/>
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="U35:V35"/>
@@ -15499,106 +15876,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AH9" sqref="AC3:AH9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="138" t="s">
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="174" t="s">
+      <c r="G1" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="139" t="s">
+      <c r="I1" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="138" t="s">
+      <c r="J1" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="174" t="s">
+      <c r="K1" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="174" t="s">
+      <c r="L1" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="139" t="s">
+      <c r="M1" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="138" t="s">
+      <c r="N1" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="174" t="s">
+      <c r="O1" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="174" t="s">
+      <c r="P1" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="139" t="s">
+      <c r="Q1" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="138" t="s">
+      <c r="R1" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="174" t="s">
+      <c r="S1" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="174" t="s">
+      <c r="T1" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="139" t="s">
+      <c r="U1" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="V1" s="138" t="s">
+      <c r="V1" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="174" t="s">
+      <c r="W1" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="174" t="s">
+      <c r="X1" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="139" t="s">
+      <c r="Y1" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="177" t="s">
+      <c r="AB1" s="205" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="179" t="s">
+      <c r="AC1" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="175" t="s">
+      <c r="AD1" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="175" t="s">
+      <c r="AE1" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="175" t="s">
+      <c r="AF1" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="175" t="s">
+      <c r="AG1" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="175" t="s">
+      <c r="AH1" s="203" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
+    <row r="2" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="159"/>
       <c r="B2" s="3">
         <v>0.5</v>
       </c>
@@ -15671,15 +16048,15 @@
       <c r="Y2" s="32">
         <v>0.8</v>
       </c>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="180"/>
-      <c r="AD2" s="176"/>
-      <c r="AE2" s="176"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="176"/>
-      <c r="AH2" s="176"/>
-    </row>
-    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="204"/>
+      <c r="AE2" s="204"/>
+      <c r="AF2" s="204"/>
+      <c r="AG2" s="204"/>
+      <c r="AH2" s="204"/>
+    </row>
+    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -15777,7 +16154,7 @@
         <v>-8.7522443401447297E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -15875,7 +16252,7 @@
         <v>5.1560578393531897E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -15973,7 +16350,7 @@
         <v>-3.3694423074520599E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -16071,7 +16448,7 @@
         <v>-3.9354010903052697E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -16169,7 +16546,7 @@
         <v>-1.6478249540334E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -16267,7 +16644,7 @@
         <v>-9.3085884784476297E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -16365,107 +16742,107 @@
         <v>-8.1971079128739396E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="131" t="s">
+    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="174" t="s">
+      <c r="D12" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="138" t="s">
+      <c r="F12" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="174" t="s">
+      <c r="G12" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="174" t="s">
+      <c r="H12" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="139" t="s">
+      <c r="I12" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="174" t="s">
+      <c r="K12" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="174" t="s">
+      <c r="L12" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="139" t="s">
+      <c r="M12" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="138" t="s">
+      <c r="N12" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="174" t="s">
+      <c r="O12" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="174" t="s">
+      <c r="P12" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="139" t="s">
+      <c r="Q12" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="R12" s="138" t="s">
+      <c r="R12" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="174" t="s">
+      <c r="S12" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="174" t="s">
+      <c r="T12" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="139" t="s">
+      <c r="U12" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="138" t="s">
+      <c r="V12" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="W12" s="174" t="s">
+      <c r="W12" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="X12" s="174" t="s">
+      <c r="X12" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="Y12" s="139" t="s">
+      <c r="Y12" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="AB12" s="177" t="s">
+      <c r="AB12" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="AC12" s="179" t="s">
+      <c r="AC12" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="AD12" s="175" t="s">
+      <c r="AD12" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="AE12" s="175" t="s">
+      <c r="AE12" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="AF12" s="175" t="s">
+      <c r="AF12" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="AG12" s="175" t="s">
+      <c r="AG12" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="175" t="s">
+      <c r="AH12" s="203" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="131"/>
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="159"/>
       <c r="B13" s="3">
         <v>0.5</v>
       </c>
@@ -16538,17 +16915,17 @@
       <c r="Y13" s="32">
         <v>0.8</v>
       </c>
-      <c r="AB13" s="178" t="s">
+      <c r="AB13" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="AC13" s="180"/>
-      <c r="AD13" s="176"/>
-      <c r="AE13" s="176"/>
-      <c r="AF13" s="176"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="176"/>
-    </row>
-    <row r="14" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="208"/>
+      <c r="AD13" s="204"/>
+      <c r="AE13" s="204"/>
+      <c r="AF13" s="204"/>
+      <c r="AG13" s="204"/>
+      <c r="AH13" s="204"/>
+    </row>
+    <row r="14" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -16646,7 +17023,7 @@
         <v>-4.7697286121105298E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -16744,7 +17121,7 @@
         <v>-7.1780794800968994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -16842,7 +17219,7 @@
         <v>5.75989713702596E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -16940,7 +17317,7 @@
         <v>-4.3874045949227197E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -17038,7 +17415,7 @@
         <v>-5.4174838426694398E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -17136,7 +17513,7 @@
         <v>-6.2289575095066503E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -17234,107 +17611,107 @@
         <v>1.59686457439332E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="131" t="s">
+    <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="166" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="174" t="s">
+      <c r="C23" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="139" t="s">
+      <c r="E23" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="138" t="s">
+      <c r="F23" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="174" t="s">
+      <c r="G23" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="174" t="s">
+      <c r="H23" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="139" t="s">
+      <c r="I23" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="138" t="s">
+      <c r="J23" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="174" t="s">
+      <c r="K23" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="174" t="s">
+      <c r="L23" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="139" t="s">
+      <c r="M23" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="138" t="s">
+      <c r="N23" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="O23" s="174" t="s">
+      <c r="O23" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="174" t="s">
+      <c r="P23" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="139" t="s">
+      <c r="Q23" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="R23" s="138" t="s">
+      <c r="R23" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="S23" s="174" t="s">
+      <c r="S23" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="T23" s="174" t="s">
+      <c r="T23" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="U23" s="139" t="s">
+      <c r="U23" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="V23" s="138" t="s">
+      <c r="V23" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="W23" s="174" t="s">
+      <c r="W23" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="X23" s="174" t="s">
+      <c r="X23" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="Y23" s="139" t="s">
+      <c r="Y23" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="AB23" s="177" t="s">
+      <c r="AB23" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="AC23" s="179" t="s">
+      <c r="AC23" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="AD23" s="175" t="s">
+      <c r="AD23" s="203" t="s">
         <v>61</v>
       </c>
-      <c r="AE23" s="175" t="s">
+      <c r="AE23" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="AF23" s="175" t="s">
+      <c r="AF23" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="AG23" s="175" t="s">
+      <c r="AG23" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="AH23" s="175" t="s">
+      <c r="AH23" s="203" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="131"/>
+    <row r="24" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="159"/>
       <c r="B24" s="3">
         <v>0.5</v>
       </c>
@@ -17407,17 +17784,17 @@
       <c r="Y24" s="32">
         <v>0.8</v>
       </c>
-      <c r="AB24" s="178" t="s">
+      <c r="AB24" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="AC24" s="180"/>
-      <c r="AD24" s="176"/>
-      <c r="AE24" s="176"/>
-      <c r="AF24" s="176"/>
-      <c r="AG24" s="176"/>
-      <c r="AH24" s="176"/>
-    </row>
-    <row r="25" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC24" s="208"/>
+      <c r="AD24" s="204"/>
+      <c r="AE24" s="204"/>
+      <c r="AF24" s="204"/>
+      <c r="AG24" s="204"/>
+      <c r="AH24" s="204"/>
+    </row>
+    <row r="25" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -17515,7 +17892,7 @@
         <v>9.9126353891879904E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -17613,7 +17990,7 @@
         <v>5.8889193432392897E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -17711,7 +18088,7 @@
         <v>1.7284669786750601E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -17809,7 +18186,7 @@
         <v>1.52821542046414E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -17907,7 +18284,7 @@
         <v>6.8021409322202003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -18005,7 +18382,7 @@
         <v>3.0507137033066998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
@@ -18103,8 +18480,8 @@
         <v>1.2335301256445001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="107" t="s">
         <v>59</v>
       </c>
@@ -18127,7 +18504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>0.5</v>
       </c>
@@ -18150,7 +18527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>0.6</v>
       </c>
@@ -18173,7 +18550,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>0.7</v>
       </c>
@@ -18196,7 +18573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <v>0.8</v>
       </c>
@@ -18496,4 +18873,5481 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:N132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="110"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="124" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="126">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C2" s="137">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D2" s="146">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E2" s="141">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="128">
+        <v>0.224</v>
+      </c>
+      <c r="C3" s="138">
+        <v>0.157</v>
+      </c>
+      <c r="D3" s="147">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E3" s="142">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="129">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C4" s="139">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D4" s="147">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E4" s="143">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="131">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C5" s="140">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D5" s="148">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E5" s="144">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="152"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="132">
+        <v>0.3674</v>
+      </c>
+      <c r="C10" s="132">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="D10" s="132">
+        <v>0.2422</v>
+      </c>
+      <c r="E10" s="132">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="110">
+        <v>0.26950894078441201</v>
+      </c>
+      <c r="J10" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="135">
+        <f t="shared" ref="K10:K16" si="0">(B10-$H10)/B10</f>
+        <v>0.26644273058134998</v>
+      </c>
+      <c r="L10" s="135">
+        <f t="shared" ref="L10:N10" si="1">(C10-$H10)/C10</f>
+        <v>-1.6247891343936723E-2</v>
+      </c>
+      <c r="M10" s="135">
+        <f t="shared" si="1"/>
+        <v>-0.11275367788774571</v>
+      </c>
+      <c r="N10" s="135">
+        <f t="shared" si="1"/>
+        <v>-0.23007275574811512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="133">
+        <v>0.1116</v>
+      </c>
+      <c r="C11" s="133">
+        <v>0.1176</v>
+      </c>
+      <c r="D11" s="133">
+        <v>0.1246</v>
+      </c>
+      <c r="E11" s="133">
+        <v>0.1075</v>
+      </c>
+      <c r="G11" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="110">
+        <v>0.115419824857626</v>
+      </c>
+      <c r="J11" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="135">
+        <f t="shared" si="0"/>
+        <v>-3.422782130489245E-2</v>
+      </c>
+      <c r="L11" s="135">
+        <f t="shared" ref="L11:L16" si="2">(C11-$H11)/C11</f>
+        <v>1.8538904271887705E-2</v>
+      </c>
+      <c r="M11" s="135">
+        <f t="shared" ref="M11:M16" si="3">(D11-$H11)/D11</f>
+        <v>7.3677168076837884E-2</v>
+      </c>
+      <c r="N11" s="135">
+        <f t="shared" ref="N11:N16" si="4">(E11-$H11)/E11</f>
+        <v>-7.3672789373265157E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="133">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="C12" s="133">
+        <v>0.1542</v>
+      </c>
+      <c r="D12" s="133">
+        <v>0.16270000000000001</v>
+      </c>
+      <c r="E12" s="133">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="110">
+        <v>0.15864307417481699</v>
+      </c>
+      <c r="J12" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="135">
+        <f t="shared" si="0"/>
+        <v>0.16150595045022736</v>
+      </c>
+      <c r="L12" s="135">
+        <f t="shared" si="2"/>
+        <v>-2.8813710601925977E-2</v>
+      </c>
+      <c r="M12" s="135">
+        <f t="shared" si="3"/>
+        <v>2.4935008144947889E-2</v>
+      </c>
+      <c r="N12" s="135">
+        <f t="shared" si="4"/>
+        <v>-0.15544846449247621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="133">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="C13" s="133">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D13" s="133">
+        <v>0.1638</v>
+      </c>
+      <c r="E13" s="133">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="110">
+        <v>0.16308552185663699</v>
+      </c>
+      <c r="J13" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="135">
+        <f t="shared" si="0"/>
+        <v>0.13756995316426757</v>
+      </c>
+      <c r="L13" s="135">
+        <f t="shared" si="2"/>
+        <v>1.7557097249174782E-2</v>
+      </c>
+      <c r="M13" s="135">
+        <f t="shared" si="3"/>
+        <v>4.3618934271245817E-3</v>
+      </c>
+      <c r="N13" s="135">
+        <f t="shared" si="4"/>
+        <v>-0.1132117532876246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="133">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="C14" s="133">
+        <v>5.33E-2</v>
+      </c>
+      <c r="D14" s="133">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="E14" s="133">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="110">
+        <v>5.3121139269766603E-2</v>
+      </c>
+      <c r="J14" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="135">
+        <f t="shared" si="0"/>
+        <v>-3.1478432422652539E-2</v>
+      </c>
+      <c r="L14" s="135">
+        <f t="shared" si="2"/>
+        <v>3.355736026893011E-3</v>
+      </c>
+      <c r="M14" s="135">
+        <f t="shared" si="3"/>
+        <v>6.1463970498823232E-2</v>
+      </c>
+      <c r="N14" s="135">
+        <f t="shared" si="4"/>
+        <v>5.2221110530599312E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="133">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="C15" s="133">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="D15" s="133">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="E15" s="133">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="110">
+        <v>0.28608808774064298</v>
+      </c>
+      <c r="J15" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="135">
+        <f t="shared" si="0"/>
+        <v>0.21576730334253572</v>
+      </c>
+      <c r="L15" s="135">
+        <f t="shared" si="2"/>
+        <v>-3.7302711169844065E-2</v>
+      </c>
+      <c r="M15" s="135">
+        <f t="shared" si="3"/>
+        <v>-8.0801238158832611E-2</v>
+      </c>
+      <c r="N15" s="135">
+        <f t="shared" si="4"/>
+        <v>-0.15172338059840165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="134">
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="C16" s="134">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="D16" s="134">
+        <v>0.1636</v>
+      </c>
+      <c r="E16" s="134">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="110">
+        <v>0.20980971707489099</v>
+      </c>
+      <c r="J16" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="135">
+        <f t="shared" si="0"/>
+        <v>0.29617672903424686</v>
+      </c>
+      <c r="L16" s="135">
+        <f t="shared" si="2"/>
+        <v>-5.6975904659400396E-2</v>
+      </c>
+      <c r="M16" s="135">
+        <f t="shared" si="3"/>
+        <v>-0.28245548334285447</v>
+      </c>
+      <c r="N16" s="135">
+        <f t="shared" si="4"/>
+        <v>-3.45646798564644E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="154"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="132">
+        <v>0.2167</v>
+      </c>
+      <c r="C20" s="132">
+        <v>0.2293</v>
+      </c>
+      <c r="D20" s="132">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="E20" s="132">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="G20" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="110">
+        <v>0.229059620787608</v>
+      </c>
+      <c r="J20" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="135">
+        <f t="shared" ref="K20:K26" si="5">(B20-$H20)/B20</f>
+        <v>-5.7035628922971822E-2</v>
+      </c>
+      <c r="L20" s="135">
+        <f t="shared" ref="L20:N20" si="6">(C20-$H20)/C20</f>
+        <v>1.0483175420497412E-3</v>
+      </c>
+      <c r="M20" s="135">
+        <f t="shared" si="6"/>
+        <v>1.3524458279035279E-2</v>
+      </c>
+      <c r="N20" s="135">
+        <f t="shared" si="6"/>
+        <v>3.2687412214493297E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="133">
+        <v>0.31659999999999999</v>
+      </c>
+      <c r="C21" s="133">
+        <v>0.3095</v>
+      </c>
+      <c r="D21" s="133">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="E21" s="133">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="G21" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="110">
+        <v>0.31172801730019301</v>
+      </c>
+      <c r="J21" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="135">
+        <f t="shared" si="5"/>
+        <v>1.5388448199011331E-2</v>
+      </c>
+      <c r="L21" s="135">
+        <f t="shared" ref="L21:L26" si="7">(C21-$H21)/C21</f>
+        <v>-7.1987634901228047E-3</v>
+      </c>
+      <c r="M21" s="135">
+        <f t="shared" ref="M21:M26" si="8">(D21-$H21)/D21</f>
+        <v>-1.0136154569646857E-2</v>
+      </c>
+      <c r="N21" s="135">
+        <f t="shared" ref="N21:N26" si="9">(E21-$H21)/E21</f>
+        <v>1.8315168101409431E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="133">
+        <v>0.1764</v>
+      </c>
+      <c r="C22" s="133">
+        <v>0.1875</v>
+      </c>
+      <c r="D22" s="133">
+        <v>0.189</v>
+      </c>
+      <c r="E22" s="133">
+        <v>0.1971</v>
+      </c>
+      <c r="G22" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="110">
+        <v>0.18778144130447999</v>
+      </c>
+      <c r="J22" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="135">
+        <f t="shared" si="5"/>
+        <v>-6.4520642315646193E-2</v>
+      </c>
+      <c r="L22" s="135">
+        <f t="shared" si="7"/>
+        <v>-1.5010202905599475E-3</v>
+      </c>
+      <c r="M22" s="135">
+        <f t="shared" si="8"/>
+        <v>6.4474005053968848E-3</v>
+      </c>
+      <c r="N22" s="135">
+        <f t="shared" si="9"/>
+        <v>4.727832925175042E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="133">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="C23" s="133">
+        <v>0.1537</v>
+      </c>
+      <c r="D23" s="133">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="E23" s="133">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="G23" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="110">
+        <v>0.15036393572205201</v>
+      </c>
+      <c r="J23" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="135">
+        <f t="shared" si="5"/>
+        <v>-1.8725851775420032E-2</v>
+      </c>
+      <c r="L23" s="135">
+        <f t="shared" si="7"/>
+        <v>2.1705037592374739E-2</v>
+      </c>
+      <c r="M23" s="135">
+        <f t="shared" si="8"/>
+        <v>-2.567486849967256E-2</v>
+      </c>
+      <c r="N23" s="135">
+        <f t="shared" si="9"/>
+        <v>1.4653107981310665E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="133">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="C24" s="133">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="D24" s="133">
+        <v>0.2843</v>
+      </c>
+      <c r="E24" s="133">
+        <v>0.2898</v>
+      </c>
+      <c r="G24" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="110">
+        <v>0.28854914632845802</v>
+      </c>
+      <c r="J24" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="135">
+        <f t="shared" si="5"/>
+        <v>1.2494365747919227E-2</v>
+      </c>
+      <c r="L24" s="135">
+        <f t="shared" si="7"/>
+        <v>-5.1715093085307709E-4</v>
+      </c>
+      <c r="M24" s="135">
+        <f t="shared" si="8"/>
+        <v>-1.4945994823981779E-2</v>
+      </c>
+      <c r="N24" s="135">
+        <f t="shared" si="9"/>
+        <v>4.3162652572187191E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="133">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="C25" s="133">
+        <v>0.2298</v>
+      </c>
+      <c r="D25" s="133">
+        <v>0.2311</v>
+      </c>
+      <c r="E25" s="133">
+        <v>0.2329</v>
+      </c>
+      <c r="G25" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="110">
+        <v>0.22771302987654701</v>
+      </c>
+      <c r="J25" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="135">
+        <f t="shared" si="5"/>
+        <v>-5.2764816812515124E-2</v>
+      </c>
+      <c r="L25" s="135">
+        <f t="shared" si="7"/>
+        <v>9.0816802587162376E-3</v>
+      </c>
+      <c r="M25" s="135">
+        <f t="shared" si="8"/>
+        <v>1.4655863796854119E-2</v>
+      </c>
+      <c r="N25" s="135">
+        <f t="shared" si="9"/>
+        <v>2.2271232818604478E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="134">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="C26" s="134">
+        <v>0.1386</v>
+      </c>
+      <c r="D26" s="134">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="E26" s="134">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="G26" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="110">
+        <v>0.14352606461474299</v>
+      </c>
+      <c r="J26" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="135">
+        <f t="shared" si="5"/>
+        <v>-0.12042205007605775</v>
+      </c>
+      <c r="L26" s="135">
+        <f t="shared" si="7"/>
+        <v>-3.5541591736962384E-2</v>
+      </c>
+      <c r="M26" s="135">
+        <f t="shared" si="8"/>
+        <v>8.6403153311629552E-2</v>
+      </c>
+      <c r="N26" s="135">
+        <f t="shared" si="9"/>
+        <v>3.088410118336949E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="110"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+    </row>
+    <row r="28" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="209" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="181" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="181" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="181" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="155"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="114">
+        <v>9.2645</v>
+      </c>
+      <c r="C30" s="114">
+        <v>9.3438999999999997</v>
+      </c>
+      <c r="D30" s="114">
+        <v>9.2843</v>
+      </c>
+      <c r="E30" s="114">
+        <v>9.2162000000000006</v>
+      </c>
+      <c r="G30" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="110">
+        <v>9.2761700215672107</v>
+      </c>
+      <c r="J30" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="135">
+        <f t="shared" ref="K30:K36" si="10">(B30-$H30)/B30</f>
+        <v>-1.2596493677166337E-3</v>
+      </c>
+      <c r="L30" s="135">
+        <f t="shared" ref="L30:N30" si="11">(C30-$H30)/C30</f>
+        <v>7.2485769788620319E-3</v>
+      </c>
+      <c r="M30" s="135">
+        <f t="shared" si="11"/>
+        <v>8.7566951011807965E-4</v>
+      </c>
+      <c r="N30" s="135">
+        <f t="shared" si="11"/>
+        <v>-6.5070225870977293E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="114">
+        <v>29.4481</v>
+      </c>
+      <c r="C31" s="114">
+        <v>29.2727</v>
+      </c>
+      <c r="D31" s="114">
+        <v>29.3508</v>
+      </c>
+      <c r="E31" s="114">
+        <v>29.461300000000001</v>
+      </c>
+      <c r="G31" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="110">
+        <v>29.386153306973299</v>
+      </c>
+      <c r="J31" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="135">
+        <f t="shared" si="10"/>
+        <v>2.1035887893175328E-3</v>
+      </c>
+      <c r="L31" s="135">
+        <f t="shared" ref="L31:L36" si="12">(C31-$H31)/C31</f>
+        <v>-3.8757377000856819E-3</v>
+      </c>
+      <c r="M31" s="135">
+        <f t="shared" ref="M31:M36" si="13">(D31-$H31)/D31</f>
+        <v>-1.2045091436451126E-3</v>
+      </c>
+      <c r="N31" s="135">
+        <f t="shared" ref="N31:N36" si="14">(E31-$H31)/E31</f>
+        <v>2.5506916879670227E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="114">
+        <v>46.162599999999998</v>
+      </c>
+      <c r="C32" s="114">
+        <v>46.745600000000003</v>
+      </c>
+      <c r="D32" s="114">
+        <v>46.703600000000002</v>
+      </c>
+      <c r="E32" s="114">
+        <v>46.082999999999998</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="110">
+        <v>46.418300467289697</v>
+      </c>
+      <c r="J32" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="135">
+        <f t="shared" si="10"/>
+        <v>-5.5391262036735243E-3</v>
+      </c>
+      <c r="L32" s="135">
+        <f t="shared" si="12"/>
+        <v>7.0017185084864904E-3</v>
+      </c>
+      <c r="M32" s="135">
+        <f t="shared" si="13"/>
+        <v>6.1087267943007494E-3</v>
+      </c>
+      <c r="N32" s="135">
+        <f t="shared" si="14"/>
+        <v>-7.2760121365731106E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="114">
+        <v>52.425800000000002</v>
+      </c>
+      <c r="C33" s="114">
+        <v>52.606099999999998</v>
+      </c>
+      <c r="D33" s="114">
+        <v>52.401899999999998</v>
+      </c>
+      <c r="E33" s="114">
+        <v>51.975999999999999</v>
+      </c>
+      <c r="G33" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="110">
+        <v>52.317638046404497</v>
+      </c>
+      <c r="J33" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="135">
+        <f t="shared" si="10"/>
+        <v>2.0631435971507467E-3</v>
+      </c>
+      <c r="L33" s="135">
+        <f t="shared" si="12"/>
+        <v>5.483431647575112E-3</v>
+      </c>
+      <c r="M33" s="135">
+        <f t="shared" si="13"/>
+        <v>1.6079942443976447E-3</v>
+      </c>
+      <c r="N33" s="135">
+        <f t="shared" si="14"/>
+        <v>-6.5729961213732814E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="114">
+        <v>37.698900000000002</v>
+      </c>
+      <c r="C34" s="114">
+        <v>38.000300000000003</v>
+      </c>
+      <c r="D34" s="114">
+        <v>38.298999999999999</v>
+      </c>
+      <c r="E34" s="114">
+        <v>37.719000000000001</v>
+      </c>
+      <c r="G34" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="110">
+        <v>37.934891480948899</v>
+      </c>
+      <c r="J34" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="135">
+        <f t="shared" si="10"/>
+        <v>-6.2599036297848742E-3</v>
+      </c>
+      <c r="L34" s="135">
+        <f t="shared" si="12"/>
+        <v>1.721263228214093E-3</v>
+      </c>
+      <c r="M34" s="135">
+        <f t="shared" si="13"/>
+        <v>9.5069980691689249E-3</v>
+      </c>
+      <c r="N34" s="135">
+        <f t="shared" si="14"/>
+        <v>-5.7236798682069418E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="114">
+        <v>12.6684</v>
+      </c>
+      <c r="C35" s="114">
+        <v>12.6774</v>
+      </c>
+      <c r="D35" s="114">
+        <v>12.651300000000001</v>
+      </c>
+      <c r="E35" s="114">
+        <v>12.6282</v>
+      </c>
+      <c r="G35" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="110">
+        <v>12.655369734004299</v>
+      </c>
+      <c r="J35" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="135">
+        <f t="shared" si="10"/>
+        <v>1.0285644592608911E-3</v>
+      </c>
+      <c r="L35" s="135">
+        <f t="shared" si="12"/>
+        <v>1.7377590038731138E-3</v>
+      </c>
+      <c r="M35" s="135">
+        <f t="shared" si="13"/>
+        <v>-3.216850445644758E-4</v>
+      </c>
+      <c r="N35" s="135">
+        <f t="shared" si="14"/>
+        <v>-2.1515128050157415E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="115">
+        <v>25.5961</v>
+      </c>
+      <c r="C36" s="115">
+        <v>26.439499999999999</v>
+      </c>
+      <c r="D36" s="115">
+        <v>26.1629</v>
+      </c>
+      <c r="E36" s="115">
+        <v>25.7209</v>
+      </c>
+      <c r="G36" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="110">
+        <v>25.9491483795044</v>
+      </c>
+      <c r="J36" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="135">
+        <f t="shared" si="10"/>
+        <v>-1.3793053609901532E-2</v>
+      </c>
+      <c r="L36" s="135">
+        <f t="shared" si="12"/>
+        <v>1.8546176005431209E-2</v>
+      </c>
+      <c r="M36" s="135">
+        <f t="shared" si="13"/>
+        <v>8.1700278063823219E-3</v>
+      </c>
+      <c r="N36" s="135">
+        <f t="shared" si="14"/>
+        <v>-8.8740432684859451E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="110"/>
+      <c r="J38" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="155"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="114">
+        <v>17.2502</v>
+      </c>
+      <c r="C40" s="114">
+        <v>16.9602</v>
+      </c>
+      <c r="D40" s="114">
+        <v>16.7624</v>
+      </c>
+      <c r="E40" s="114">
+        <v>17.567599999999999</v>
+      </c>
+      <c r="G40" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>17.133665469311701</v>
+      </c>
+      <c r="J40" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="135">
+        <f>(B40-$H40)/B40</f>
+        <v>6.7555466422591238E-3</v>
+      </c>
+      <c r="L40" s="135">
+        <f t="shared" ref="L40:N46" si="15">(C40-$H40)/C40</f>
+        <v>-1.0227796211819485E-2</v>
+      </c>
+      <c r="M40" s="135">
+        <f t="shared" si="15"/>
+        <v>-2.2148705991487001E-2</v>
+      </c>
+      <c r="N40" s="135">
+        <f t="shared" si="15"/>
+        <v>2.4700843068392816E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="114">
+        <v>22.687999999999999</v>
+      </c>
+      <c r="C41" s="114">
+        <v>21.694800000000001</v>
+      </c>
+      <c r="D41" s="114">
+        <v>21.606999999999999</v>
+      </c>
+      <c r="E41" s="114">
+        <v>22.5825</v>
+      </c>
+      <c r="G41" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>22.143645747945499</v>
+      </c>
+      <c r="J41" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="135">
+        <f t="shared" ref="K41:K46" si="16">(B41-$H41)/B41</f>
+        <v>2.3993047075744896E-2</v>
+      </c>
+      <c r="L41" s="135">
+        <f t="shared" si="15"/>
+        <v>-2.068909360517257E-2</v>
+      </c>
+      <c r="M41" s="135">
+        <f t="shared" si="15"/>
+        <v>-2.4836661634909954E-2</v>
+      </c>
+      <c r="N41" s="135">
+        <f t="shared" si="15"/>
+        <v>1.9433377706387731E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="114">
+        <v>18.744700000000002</v>
+      </c>
+      <c r="C42" s="114">
+        <v>18.471800000000002</v>
+      </c>
+      <c r="D42" s="114">
+        <v>18.3779</v>
+      </c>
+      <c r="E42" s="114">
+        <v>19.148700000000002</v>
+      </c>
+      <c r="G42" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="110">
+        <v>18.6882381516435</v>
+      </c>
+      <c r="J42" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="135">
+        <f t="shared" si="16"/>
+        <v>3.0121500134172338E-3</v>
+      </c>
+      <c r="L42" s="135">
+        <f t="shared" si="15"/>
+        <v>-1.1717220392354717E-2</v>
+      </c>
+      <c r="M42" s="135">
+        <f t="shared" si="15"/>
+        <v>-1.6886486031782701E-2</v>
+      </c>
+      <c r="N42" s="135">
+        <f t="shared" si="15"/>
+        <v>2.404663754492482E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="114">
+        <v>17.890699999999999</v>
+      </c>
+      <c r="C43" s="114">
+        <v>17.362400000000001</v>
+      </c>
+      <c r="D43" s="114">
+        <v>17.020900000000001</v>
+      </c>
+      <c r="E43" s="114">
+        <v>17.676600000000001</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="110">
+        <v>17.479678310220802</v>
+      </c>
+      <c r="J43" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="135">
+        <f t="shared" si="16"/>
+        <v>2.2974041808268945E-2</v>
+      </c>
+      <c r="L43" s="135">
+        <f t="shared" si="15"/>
+        <v>-6.7547291976224949E-3</v>
+      </c>
+      <c r="M43" s="135">
+        <f t="shared" si="15"/>
+        <v>-2.6953822078785536E-2</v>
+      </c>
+      <c r="N43" s="135">
+        <f t="shared" si="15"/>
+        <v>1.114024698070889E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="114">
+        <v>21.7041</v>
+      </c>
+      <c r="C44" s="114">
+        <v>21.011399999999998</v>
+      </c>
+      <c r="D44" s="114">
+        <v>20.777100000000001</v>
+      </c>
+      <c r="E44" s="114">
+        <v>21.3552</v>
+      </c>
+      <c r="G44" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="110">
+        <v>21.206435794491501</v>
+      </c>
+      <c r="J44" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="135">
+        <f t="shared" si="16"/>
+        <v>2.2929502052999175E-2</v>
+      </c>
+      <c r="L44" s="135">
+        <f t="shared" si="15"/>
+        <v>-9.2823797791438296E-3</v>
+      </c>
+      <c r="M44" s="135">
+        <f t="shared" si="15"/>
+        <v>-2.0663894118596923E-2</v>
+      </c>
+      <c r="N44" s="135">
+        <f t="shared" si="15"/>
+        <v>6.9661817968691003E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="114">
+        <v>17.394200000000001</v>
+      </c>
+      <c r="C45" s="114">
+        <v>17.063600000000001</v>
+      </c>
+      <c r="D45" s="114">
+        <v>16.834800000000001</v>
+      </c>
+      <c r="E45" s="114">
+        <v>17.490200000000002</v>
+      </c>
+      <c r="G45" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="110">
+        <v>17.193057771036599</v>
+      </c>
+      <c r="I45" s="110"/>
+      <c r="J45" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="135">
+        <f t="shared" si="16"/>
+        <v>1.1563752800554319E-2</v>
+      </c>
+      <c r="L45" s="135">
+        <f t="shared" si="15"/>
+        <v>-7.5867795211208948E-3</v>
+      </c>
+      <c r="M45" s="135">
+        <f t="shared" si="15"/>
+        <v>-2.1280785696093697E-2</v>
+      </c>
+      <c r="N45" s="135">
+        <f t="shared" si="15"/>
+        <v>1.6989069819864953E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="115">
+        <v>14.449400000000001</v>
+      </c>
+      <c r="C46" s="115">
+        <v>14.355600000000001</v>
+      </c>
+      <c r="D46" s="115">
+        <v>14.7019</v>
+      </c>
+      <c r="E46" s="115">
+        <v>15.2966</v>
+      </c>
+      <c r="G46" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="110">
+        <v>14.7145772522898</v>
+      </c>
+      <c r="I46" s="110"/>
+      <c r="J46" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="135">
+        <f t="shared" si="16"/>
+        <v>-1.8352128966586796E-2</v>
+      </c>
+      <c r="L46" s="135">
+        <f t="shared" si="15"/>
+        <v>-2.500607792706673E-2</v>
+      </c>
+      <c r="M46" s="135">
+        <f t="shared" si="15"/>
+        <v>-8.6228666293470689E-4</v>
+      </c>
+      <c r="N46" s="135">
+        <f t="shared" si="15"/>
+        <v>3.8049157833126304E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="149"/>
+      <c r="M47" s="149"/>
+      <c r="N47" s="149"/>
+    </row>
+    <row r="48" spans="1:14" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="211" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="211"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="211"/>
+      <c r="J48" s="211"/>
+      <c r="K48" s="211"/>
+      <c r="L48" s="211"/>
+      <c r="M48" s="211"/>
+      <c r="N48" s="211"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="211"/>
+      <c r="B49" s="211"/>
+      <c r="C49" s="211"/>
+      <c r="D49" s="211"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="211"/>
+      <c r="G49" s="211"/>
+      <c r="H49" s="211"/>
+      <c r="I49" s="211"/>
+      <c r="J49" s="211"/>
+      <c r="K49" s="211"/>
+      <c r="L49" s="211"/>
+      <c r="M49" s="211"/>
+      <c r="N49" s="211"/>
+    </row>
+    <row r="50" spans="1:14" s="110" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="49"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L51" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M51" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N51" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="152"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="153"/>
+    </row>
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="132">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="C53" s="132">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="D53" s="132">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="E53" s="132">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>0.26827134013361098</v>
+      </c>
+      <c r="J53" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="135">
+        <f t="shared" ref="K53:K59" si="17">(B53-$H53)/B53</f>
+        <v>1.5879163119548893E-2</v>
+      </c>
+      <c r="L53" s="135">
+        <f t="shared" ref="L53:L59" si="18">(C53-$H53)/C53</f>
+        <v>8.8132766371138802E-2</v>
+      </c>
+      <c r="M53" s="135">
+        <f t="shared" ref="M53:M59" si="19">(D53-$H53)/D53</f>
+        <v>-0.19710548921736273</v>
+      </c>
+      <c r="N53" s="135">
+        <f t="shared" ref="N53:N59" si="20">(E53-$H53)/E53</f>
+        <v>8.5022714414696568E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="133">
+        <v>0.1074</v>
+      </c>
+      <c r="C54" s="133">
+        <v>0.1198</v>
+      </c>
+      <c r="D54" s="133">
+        <v>0.1157</v>
+      </c>
+      <c r="E54" s="133">
+        <v>0.1187</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>0.11537239925716999</v>
+      </c>
+      <c r="J54" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="135">
+        <f t="shared" si="17"/>
+        <v>-7.4230905560242075E-2</v>
+      </c>
+      <c r="L54" s="135">
+        <f t="shared" si="18"/>
+        <v>3.6958269973539314E-2</v>
+      </c>
+      <c r="M54" s="135">
+        <f t="shared" si="19"/>
+        <v>2.8314670944684806E-3</v>
+      </c>
+      <c r="N54" s="135">
+        <f t="shared" si="20"/>
+        <v>2.8033704657371573E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="133">
+        <v>0.1671</v>
+      </c>
+      <c r="C55" s="133">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="D55" s="133">
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="E55" s="133">
+        <v>0.18459999999999999</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>0.17615831901624701</v>
+      </c>
+      <c r="J55" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="135">
+        <f t="shared" si="17"/>
+        <v>-5.4208970773471053E-2</v>
+      </c>
+      <c r="L55" s="135">
+        <f t="shared" si="18"/>
+        <v>5.4944640470777885E-2</v>
+      </c>
+      <c r="M55" s="135">
+        <f t="shared" si="19"/>
+        <v>-5.0437203436177844E-2</v>
+      </c>
+      <c r="N55" s="135">
+        <f t="shared" si="20"/>
+        <v>4.5729582793894774E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="133">
+        <v>0.18090000000000001</v>
+      </c>
+      <c r="C56" s="133">
+        <v>0.217</v>
+      </c>
+      <c r="D56" s="133">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="E56" s="133">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56">
+        <v>0.19751023298516501</v>
+      </c>
+      <c r="J56" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="135">
+        <f t="shared" si="17"/>
+        <v>-9.1819972278413528E-2</v>
+      </c>
+      <c r="L56" s="135">
+        <f t="shared" si="18"/>
+        <v>8.9814594538410078E-2</v>
+      </c>
+      <c r="M56" s="135">
+        <f t="shared" si="19"/>
+        <v>-0.10464336121456951</v>
+      </c>
+      <c r="N56" s="135">
+        <f t="shared" si="20"/>
+        <v>9.9771043823313574E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="133">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C57" s="133">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="D57" s="133">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="E57" s="133">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57">
+        <v>5.3035827117279201E-2</v>
+      </c>
+      <c r="J57" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="135">
+        <f t="shared" si="17"/>
+        <v>-0.11654372878482527</v>
+      </c>
+      <c r="L57" s="135">
+        <f t="shared" si="18"/>
+        <v>5.4619837481654124E-2</v>
+      </c>
+      <c r="M57" s="135">
+        <f t="shared" si="19"/>
+        <v>1.236821010653253E-2</v>
+      </c>
+      <c r="N57" s="135">
+        <f t="shared" si="20"/>
+        <v>7.9239112547236076E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="133">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="C58" s="133">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="D58" s="133">
+        <v>0.2477</v>
+      </c>
+      <c r="E58" s="133">
+        <v>0.31719999999999998</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58">
+        <v>0.28605448471419398</v>
+      </c>
+      <c r="J58" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="135">
+        <f t="shared" si="17"/>
+        <v>-2.3450750319119688E-2</v>
+      </c>
+      <c r="L58" s="135">
+        <f t="shared" si="18"/>
+        <v>6.6401812290489637E-2</v>
+      </c>
+      <c r="M58" s="135">
+        <f t="shared" si="19"/>
+        <v>-0.15484248976259174</v>
+      </c>
+      <c r="N58" s="135">
+        <f t="shared" si="20"/>
+        <v>9.8188888038480471E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="134">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="C59" s="134">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="D59" s="134">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="E59" s="134">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>0.27240229717275299</v>
+      </c>
+      <c r="J59" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="135">
+        <f t="shared" si="17"/>
+        <v>9.3804733290908132E-2</v>
+      </c>
+      <c r="L59" s="135">
+        <f t="shared" si="18"/>
+        <v>-1.8473599586355978E-3</v>
+      </c>
+      <c r="M59" s="135">
+        <f t="shared" si="19"/>
+        <v>-0.22483047289906929</v>
+      </c>
+      <c r="N59" s="135">
+        <f t="shared" si="20"/>
+        <v>8.2820548239888866E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="152" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L61" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M61" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N61" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="152"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="153"/>
+      <c r="J62" s="152"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
+      <c r="M62" s="153"/>
+      <c r="N62" s="153"/>
+    </row>
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="132">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="C63" s="132">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="D63" s="132">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="E63" s="132">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="G63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>0.230465307871903</v>
+      </c>
+      <c r="J63" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" s="135">
+        <f t="shared" ref="K63:K69" si="21">(B63-$H63)/B63</f>
+        <v>1.3841215781330718E-2</v>
+      </c>
+      <c r="L63" s="135">
+        <f t="shared" ref="L63:L69" si="22">(C63-$H63)/C63</f>
+        <v>-2.9322500544452946E-2</v>
+      </c>
+      <c r="M63" s="135">
+        <f t="shared" ref="M63:M69" si="23">(D63-$H63)/D63</f>
+        <v>4.2122577423512074E-2</v>
+      </c>
+      <c r="N63" s="135">
+        <f t="shared" ref="N63:N69" si="24">(E63-$H63)/E63</f>
+        <v>-3.3013482168996008E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="133">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="C64" s="133">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="D64" s="133">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="E64" s="133">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>0.311903389540302</v>
+      </c>
+      <c r="J64" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64" s="135">
+        <f t="shared" si="21"/>
+        <v>6.3606577244281984E-3</v>
+      </c>
+      <c r="L64" s="135">
+        <f t="shared" si="22"/>
+        <v>-9.7365064281775546E-4</v>
+      </c>
+      <c r="M64" s="135">
+        <f t="shared" si="23"/>
+        <v>-5.8155096430248755E-3</v>
+      </c>
+      <c r="N64" s="135">
+        <f t="shared" si="24"/>
+        <v>-3.3158928897363406E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="133">
+        <v>0.2535</v>
+      </c>
+      <c r="C65" s="133">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="D65" s="133">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="E65" s="133">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>0.25166261045879701</v>
+      </c>
+      <c r="J65" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="135">
+        <f t="shared" si="21"/>
+        <v>7.2480849751597395E-3</v>
+      </c>
+      <c r="L65" s="135">
+        <f t="shared" si="22"/>
+        <v>-1.6407958234236762E-2</v>
+      </c>
+      <c r="M65" s="135">
+        <f t="shared" si="23"/>
+        <v>2.5319091948888366E-2</v>
+      </c>
+      <c r="N65" s="135">
+        <f t="shared" si="24"/>
+        <v>-1.7640964249078114E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="133">
+        <v>0.2311</v>
+      </c>
+      <c r="C66" s="133">
+        <v>0.2198</v>
+      </c>
+      <c r="D66" s="133">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="E66" s="133">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66">
+        <v>0.22356802748543</v>
+      </c>
+      <c r="J66" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="135">
+        <f t="shared" si="21"/>
+        <v>3.2591832603072246E-2</v>
+      </c>
+      <c r="L66" s="135">
+        <f t="shared" si="22"/>
+        <v>-1.7142982190309412E-2</v>
+      </c>
+      <c r="M66" s="135">
+        <f t="shared" si="23"/>
+        <v>1.5985794518353909E-2</v>
+      </c>
+      <c r="N66" s="135">
+        <f t="shared" si="24"/>
+        <v>-3.6957455869341328E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="133">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="C67" s="133">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="D67" s="133">
+        <v>0.28620000000000001</v>
+      </c>
+      <c r="E67" s="133">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67">
+        <v>0.28909317933032003</v>
+      </c>
+      <c r="J67" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" s="135">
+        <f t="shared" si="21"/>
+        <v>1.0632514269952048E-2</v>
+      </c>
+      <c r="L67" s="135">
+        <f t="shared" si="22"/>
+        <v>1.4052527450084719E-3</v>
+      </c>
+      <c r="M67" s="135">
+        <f t="shared" si="23"/>
+        <v>-1.0108942453948347E-2</v>
+      </c>
+      <c r="N67" s="135">
+        <f t="shared" si="24"/>
+        <v>-2.4035344324550532E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="133">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C68" s="133">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="D68" s="133">
+        <v>0.2382</v>
+      </c>
+      <c r="E68" s="133">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>0.22866244903366001</v>
+      </c>
+      <c r="J68" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="135">
+        <f t="shared" si="21"/>
+        <v>1.4385995544568977E-2</v>
+      </c>
+      <c r="L68" s="135">
+        <f t="shared" si="22"/>
+        <v>-2.6773457717377637E-2</v>
+      </c>
+      <c r="M68" s="135">
+        <f t="shared" si="23"/>
+        <v>4.0040096416204811E-2</v>
+      </c>
+      <c r="N68" s="135">
+        <f t="shared" si="24"/>
+        <v>-3.3736207204611214E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="134">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="C69" s="134">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="D69" s="134">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="E69" s="134">
+        <v>0.19209999999999999</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>0.19621595074196799</v>
+      </c>
+      <c r="J69" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="135">
+        <f t="shared" si="21"/>
+        <v>-2.4091600949728575E-2</v>
+      </c>
+      <c r="L69" s="135">
+        <f t="shared" si="22"/>
+        <v>-1.7189998662353548E-2</v>
+      </c>
+      <c r="M69" s="135">
+        <f t="shared" si="23"/>
+        <v>5.891630339583695E-2</v>
+      </c>
+      <c r="N69" s="135">
+        <f t="shared" si="24"/>
+        <v>-2.1426084028984875E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="110"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="209" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="181" t="s">
+        <v>73</v>
+      </c>
+      <c r="L71" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="M71" s="181" t="s">
+        <v>3</v>
+      </c>
+      <c r="N71" s="181" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="155"/>
+      <c r="B72" s="153"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="153"/>
+      <c r="J72" s="210"/>
+      <c r="K72" s="183"/>
+      <c r="L72" s="183"/>
+      <c r="M72" s="183"/>
+      <c r="N72" s="183"/>
+    </row>
+    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="114">
+        <v>9.2796000000000003</v>
+      </c>
+      <c r="C73" s="114">
+        <v>9.2782999999999998</v>
+      </c>
+      <c r="D73" s="114">
+        <v>9.2487999999999992</v>
+      </c>
+      <c r="E73" s="114">
+        <v>9.2840000000000007</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>9.2732718904526408</v>
+      </c>
+      <c r="J73" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="135">
+        <f t="shared" ref="K73:K79" si="25">(B73-$H73)/B73</f>
+        <v>6.8193775026504559E-4</v>
+      </c>
+      <c r="L73" s="135">
+        <f t="shared" ref="L73:L79" si="26">(C73-$H73)/C73</f>
+        <v>5.4192142389866617E-4</v>
+      </c>
+      <c r="M73" s="135">
+        <f t="shared" ref="M73:M79" si="27">(D73-$H73)/D73</f>
+        <v>-2.6459530374363738E-3</v>
+      </c>
+      <c r="N73" s="135">
+        <f t="shared" ref="N73:N79" si="28">(E73-$H73)/E73</f>
+        <v>1.1555482063076174E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="114">
+        <v>29.495999999999999</v>
+      </c>
+      <c r="C74" s="114">
+        <v>29.4373</v>
+      </c>
+      <c r="D74" s="114">
+        <v>29.392600000000002</v>
+      </c>
+      <c r="E74" s="114">
+        <v>29.392900000000001</v>
+      </c>
+      <c r="G74" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>29.430925713198899</v>
+      </c>
+      <c r="J74" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K74" s="135">
+        <f t="shared" si="25"/>
+        <v>2.2062071738913544E-3</v>
+      </c>
+      <c r="L74" s="135">
+        <f t="shared" si="26"/>
+        <v>2.165377531601469E-4</v>
+      </c>
+      <c r="M74" s="135">
+        <f t="shared" si="27"/>
+        <v>-1.3039238855663553E-3</v>
+      </c>
+      <c r="N74" s="135">
+        <f t="shared" si="28"/>
+        <v>-1.2937040305277246E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="114">
+        <v>46.450600000000001</v>
+      </c>
+      <c r="C75" s="114">
+        <v>46.438000000000002</v>
+      </c>
+      <c r="D75" s="114">
+        <v>46.407400000000003</v>
+      </c>
+      <c r="E75" s="114">
+        <v>46.380800000000001</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <v>46.417345606694496</v>
+      </c>
+      <c r="J75" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="135">
+        <f t="shared" si="25"/>
+        <v>7.1590880000484266E-4</v>
+      </c>
+      <c r="L75" s="135">
+        <f t="shared" si="26"/>
+        <v>4.4477353257043565E-4</v>
+      </c>
+      <c r="M75" s="135">
+        <f t="shared" si="27"/>
+        <v>-2.1431079298762367E-4</v>
+      </c>
+      <c r="N75" s="135">
+        <f t="shared" si="28"/>
+        <v>-7.8794688091830671E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="114">
+        <v>59.7849</v>
+      </c>
+      <c r="C76" s="114">
+        <v>59.674599999999998</v>
+      </c>
+      <c r="D76" s="114">
+        <v>59.660600000000002</v>
+      </c>
+      <c r="E76" s="114">
+        <v>59.7104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>59.703270559147903</v>
+      </c>
+      <c r="J76" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="135">
+        <f t="shared" si="25"/>
+        <v>1.3653855882019949E-3</v>
+      </c>
+      <c r="L76" s="135">
+        <f t="shared" si="26"/>
+        <v>-4.8044828365677929E-4</v>
+      </c>
+      <c r="M76" s="135">
+        <f t="shared" si="27"/>
+        <v>-7.1522175686970346E-4</v>
+      </c>
+      <c r="N76" s="135">
+        <f t="shared" si="28"/>
+        <v>1.1940031974491865E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="114">
+        <v>37.9405</v>
+      </c>
+      <c r="C77" s="114">
+        <v>38.076900000000002</v>
+      </c>
+      <c r="D77" s="114">
+        <v>37.865400000000001</v>
+      </c>
+      <c r="E77" s="114">
+        <v>38.070599999999999</v>
+      </c>
+      <c r="G77" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77">
+        <v>37.988038303537401</v>
+      </c>
+      <c r="J77" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" s="135">
+        <f t="shared" si="25"/>
+        <v>-1.2529698748672488E-3</v>
+      </c>
+      <c r="L77" s="135">
+        <f t="shared" si="26"/>
+        <v>2.3337429376498876E-3</v>
+      </c>
+      <c r="M77" s="135">
+        <f t="shared" si="27"/>
+        <v>-3.2387959334220662E-3</v>
+      </c>
+      <c r="N77" s="135">
+        <f t="shared" si="28"/>
+        <v>2.168647104658133E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="114">
+        <v>12.6983</v>
+      </c>
+      <c r="C78" s="114">
+        <v>12.6425</v>
+      </c>
+      <c r="D78" s="114">
+        <v>12.649699999999999</v>
+      </c>
+      <c r="E78" s="114">
+        <v>12.640499999999999</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <v>12.657851540509601</v>
+      </c>
+      <c r="J78" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="135">
+        <f t="shared" si="25"/>
+        <v>3.1853444548009657E-3</v>
+      </c>
+      <c r="L78" s="135">
+        <f t="shared" si="26"/>
+        <v>-1.2142804437097509E-3</v>
+      </c>
+      <c r="M78" s="135">
+        <f t="shared" si="27"/>
+        <v>-6.4440583647053435E-4</v>
+      </c>
+      <c r="N78" s="135">
+        <f t="shared" si="28"/>
+        <v>-1.372694158427372E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="115">
+        <v>34.911299999999997</v>
+      </c>
+      <c r="C79" s="115">
+        <v>34.933599999999998</v>
+      </c>
+      <c r="D79" s="115">
+        <v>34.919800000000002</v>
+      </c>
+      <c r="E79" s="115">
+        <v>34.835500000000003</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>34.899278699125098</v>
+      </c>
+      <c r="J79" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="135">
+        <f t="shared" si="25"/>
+        <v>3.4433839114839766E-4</v>
+      </c>
+      <c r="L79" s="135">
+        <f t="shared" si="26"/>
+        <v>9.8247248708694139E-4</v>
+      </c>
+      <c r="M79" s="135">
+        <f t="shared" si="27"/>
+        <v>5.8766948478811772E-4</v>
+      </c>
+      <c r="N79" s="135">
+        <f t="shared" si="28"/>
+        <v>-1.8308535581546071E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="110"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="K81" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L81" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="155"/>
+      <c r="B82" s="153"/>
+      <c r="C82" s="153"/>
+      <c r="D82" s="153"/>
+      <c r="E82" s="153"/>
+      <c r="J82" s="155"/>
+      <c r="K82" s="153"/>
+      <c r="L82" s="153"/>
+      <c r="M82" s="153"/>
+      <c r="N82" s="153"/>
+    </row>
+    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="114">
+        <v>17.848700000000001</v>
+      </c>
+      <c r="C83" s="114">
+        <v>16.8078</v>
+      </c>
+      <c r="D83" s="114">
+        <v>17.364000000000001</v>
+      </c>
+      <c r="E83" s="114">
+        <v>16.7729</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>17.202712651494501</v>
+      </c>
+      <c r="J83" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="135">
+        <f>(B83-$H83)/B83</f>
+        <v>3.619240328458094E-2</v>
+      </c>
+      <c r="L83" s="135">
+        <f t="shared" ref="L83:L89" si="29">(C83-$H83)/C83</f>
+        <v>-2.3495796683355389E-2</v>
+      </c>
+      <c r="M83" s="135">
+        <f t="shared" ref="M83:M89" si="30">(D83-$H83)/D83</f>
+        <v>9.2886056499366359E-3</v>
+      </c>
+      <c r="N83" s="135">
+        <f t="shared" ref="N83:N89" si="31">(E83-$H83)/E83</f>
+        <v>-2.5625422645726207E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="114">
+        <v>22.5686</v>
+      </c>
+      <c r="C84" s="114">
+        <v>22.1175</v>
+      </c>
+      <c r="D84" s="114">
+        <v>22.0473</v>
+      </c>
+      <c r="E84" s="114">
+        <v>22.137799999999999</v>
+      </c>
+      <c r="G84" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84">
+        <v>22.220514576652999</v>
+      </c>
+      <c r="J84" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84" s="135">
+        <f t="shared" ref="K84:K89" si="32">(B84-$H84)/B84</f>
+        <v>1.5423438908350594E-2</v>
+      </c>
+      <c r="L84" s="135">
+        <f t="shared" si="29"/>
+        <v>-4.6576049125352809E-3</v>
+      </c>
+      <c r="M84" s="135">
+        <f t="shared" si="30"/>
+        <v>-7.8564983763544233E-3</v>
+      </c>
+      <c r="N84" s="135">
+        <f t="shared" si="31"/>
+        <v>-3.7363503443431688E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="114">
+        <v>19.231400000000001</v>
+      </c>
+      <c r="C85" s="114">
+        <v>18.514399999999998</v>
+      </c>
+      <c r="D85" s="114">
+        <v>18.886500000000002</v>
+      </c>
+      <c r="E85" s="114">
+        <v>18.445799999999998</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>18.773661870244499</v>
+      </c>
+      <c r="J85" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" s="135">
+        <f t="shared" si="32"/>
+        <v>2.3801602054738677E-2</v>
+      </c>
+      <c r="L85" s="135">
+        <f t="shared" si="29"/>
+        <v>-1.4003255317185589E-2</v>
+      </c>
+      <c r="M85" s="135">
+        <f t="shared" si="30"/>
+        <v>5.9745389434517947E-3</v>
+      </c>
+      <c r="N85" s="135">
+        <f t="shared" si="31"/>
+        <v>-1.7774337260758596E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="114">
+        <v>18.227</v>
+      </c>
+      <c r="C86" s="114">
+        <v>17.246300000000002</v>
+      </c>
+      <c r="D86" s="114">
+        <v>17.485499999999998</v>
+      </c>
+      <c r="E86" s="114">
+        <v>17.184699999999999</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86">
+        <v>17.540921671422101</v>
+      </c>
+      <c r="J86" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" s="135">
+        <f t="shared" si="32"/>
+        <v>3.7640770756454674E-2</v>
+      </c>
+      <c r="L86" s="135">
+        <f t="shared" si="29"/>
+        <v>-1.7083181402509494E-2</v>
+      </c>
+      <c r="M86" s="135">
+        <f t="shared" si="30"/>
+        <v>-3.1695788751881704E-3</v>
+      </c>
+      <c r="N86" s="135">
+        <f t="shared" si="31"/>
+        <v>-2.0729001461887702E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="114">
+        <v>21.584599999999998</v>
+      </c>
+      <c r="C87" s="114">
+        <v>21.3263</v>
+      </c>
+      <c r="D87" s="114">
+        <v>20.970199999999998</v>
+      </c>
+      <c r="E87" s="114">
+        <v>21.234999999999999</v>
+      </c>
+      <c r="G87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87">
+        <v>21.282011398663901</v>
+      </c>
+      <c r="J87" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87" s="135">
+        <f t="shared" si="32"/>
+        <v>1.4018726376031868E-2</v>
+      </c>
+      <c r="L87" s="135">
+        <f t="shared" si="29"/>
+        <v>2.0767128538986615E-3</v>
+      </c>
+      <c r="M87" s="135">
+        <f t="shared" si="30"/>
+        <v>-1.4869262032021746E-2</v>
+      </c>
+      <c r="N87" s="135">
+        <f t="shared" si="31"/>
+        <v>-2.2138638410125434E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="114">
+        <v>17.889900000000001</v>
+      </c>
+      <c r="C88" s="114">
+        <v>16.923500000000001</v>
+      </c>
+      <c r="D88" s="114">
+        <v>17.3749</v>
+      </c>
+      <c r="E88" s="114">
+        <v>16.8034</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88">
+        <v>17.253882661911199</v>
+      </c>
+      <c r="J88" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="135">
+        <f t="shared" si="32"/>
+        <v>3.5551754793978839E-2</v>
+      </c>
+      <c r="L88" s="135">
+        <f t="shared" si="29"/>
+        <v>-1.9522123787112478E-2</v>
+      </c>
+      <c r="M88" s="135">
+        <f t="shared" si="30"/>
+        <v>6.965066739307941E-3</v>
+      </c>
+      <c r="N88" s="135">
+        <f t="shared" si="31"/>
+        <v>-2.6809018526679051E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="115">
+        <v>15.020099999999999</v>
+      </c>
+      <c r="C89" s="115">
+        <v>14.4047</v>
+      </c>
+      <c r="D89" s="115">
+        <v>15.146599999999999</v>
+      </c>
+      <c r="E89" s="115">
+        <v>14.4848</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89">
+        <v>14.764589136775299</v>
+      </c>
+      <c r="J89" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="135">
+        <f t="shared" si="32"/>
+        <v>1.7011262456621452E-2</v>
+      </c>
+      <c r="L89" s="135">
+        <f t="shared" si="29"/>
+        <v>-2.4984146617097157E-2</v>
+      </c>
+      <c r="M89" s="135">
+        <f t="shared" si="30"/>
+        <v>2.5220898632346528E-2</v>
+      </c>
+      <c r="N89" s="135">
+        <f t="shared" si="31"/>
+        <v>-1.9316051086331852E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="110"/>
+    </row>
+    <row r="91" spans="1:14" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="211" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="211"/>
+      <c r="C91" s="211"/>
+      <c r="D91" s="211"/>
+      <c r="E91" s="211"/>
+      <c r="F91" s="211"/>
+      <c r="G91" s="211"/>
+      <c r="H91" s="211"/>
+      <c r="I91" s="211"/>
+      <c r="J91" s="211"/>
+      <c r="K91" s="211"/>
+      <c r="L91" s="211"/>
+      <c r="M91" s="211"/>
+      <c r="N91" s="211"/>
+    </row>
+    <row r="92" spans="1:14" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="211"/>
+      <c r="B92" s="211"/>
+      <c r="C92" s="211"/>
+      <c r="D92" s="211"/>
+      <c r="E92" s="211"/>
+      <c r="F92" s="211"/>
+      <c r="G92" s="211"/>
+      <c r="H92" s="211"/>
+      <c r="I92" s="211"/>
+      <c r="J92" s="211"/>
+      <c r="K92" s="211"/>
+      <c r="L92" s="211"/>
+      <c r="M92" s="211"/>
+      <c r="N92" s="211"/>
+    </row>
+    <row r="93" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" s="152" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L94" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M94" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="152"/>
+      <c r="B95" s="153"/>
+      <c r="C95" s="153"/>
+      <c r="D95" s="153"/>
+      <c r="E95" s="153"/>
+      <c r="J95" s="152"/>
+      <c r="K95" s="153"/>
+      <c r="L95" s="153"/>
+      <c r="M95" s="153"/>
+      <c r="N95" s="153"/>
+    </row>
+    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="132">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="C96" s="132">
+        <v>0.3221</v>
+      </c>
+      <c r="D96" s="132">
+        <v>0.2235</v>
+      </c>
+      <c r="E96" s="132">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="G96" t="s">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>0.26950894078441201</v>
+      </c>
+      <c r="J96" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" s="135">
+        <f t="shared" ref="K96:K102" si="33">(B96-$H96)/B96</f>
+        <v>-4.5013341544831297E-2</v>
+      </c>
+      <c r="L96" s="135">
+        <f t="shared" ref="L96:L102" si="34">(C96-$H96)/C96</f>
+        <v>0.16327556415891956</v>
+      </c>
+      <c r="M96" s="135">
+        <f t="shared" ref="M96:M102" si="35">(D96-$H96)/D96</f>
+        <v>-0.2058565583195168</v>
+      </c>
+      <c r="N96" s="135">
+        <f t="shared" ref="N96:N102" si="36">(E96-$H96)/E96</f>
+        <v>6.6474053396563912E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="133">
+        <v>0.1028</v>
+      </c>
+      <c r="C97" s="133">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="D97" s="133">
+        <v>0.1164</v>
+      </c>
+      <c r="E97" s="133">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>0.115419824857626</v>
+      </c>
+      <c r="J97" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="K97" s="135">
+        <f t="shared" si="33"/>
+        <v>-0.12276094219480545</v>
+      </c>
+      <c r="L97" s="135">
+        <f t="shared" si="34"/>
+        <v>5.3159763268039319E-2</v>
+      </c>
+      <c r="M97" s="135">
+        <f t="shared" si="35"/>
+        <v>8.4207486458247535E-3</v>
+      </c>
+      <c r="N97" s="135">
+        <f t="shared" si="36"/>
+        <v>3.008550539810078E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="133">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="C98" s="133">
+        <v>0.1938</v>
+      </c>
+      <c r="D98" s="133">
+        <v>0.1673</v>
+      </c>
+      <c r="E98" s="133">
+        <v>0.18690000000000001</v>
+      </c>
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <v>0.17673491115855999</v>
+      </c>
+      <c r="J98" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="K98" s="135">
+        <f t="shared" si="33"/>
+        <v>-0.10875101103237145</v>
+      </c>
+      <c r="L98" s="135">
+        <f t="shared" si="34"/>
+        <v>8.8055153980598586E-2</v>
+      </c>
+      <c r="M98" s="135">
+        <f t="shared" si="35"/>
+        <v>-5.6395165323132032E-2</v>
+      </c>
+      <c r="N98" s="135">
+        <f t="shared" si="36"/>
+        <v>5.4387848268806938E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="133">
+        <v>0.1837</v>
+      </c>
+      <c r="C99" s="133">
+        <v>0.2218</v>
+      </c>
+      <c r="D99" s="133">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="E99" s="133">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="G99" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99">
+        <v>0.19833290742411899</v>
+      </c>
+      <c r="J99" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="K99" s="135">
+        <f t="shared" si="33"/>
+        <v>-7.9656545585840996E-2</v>
+      </c>
+      <c r="L99" s="135">
+        <f t="shared" si="34"/>
+        <v>0.10580294218160959</v>
+      </c>
+      <c r="M99" s="135">
+        <f t="shared" si="35"/>
+        <v>-8.4972141269797616E-2</v>
+      </c>
+      <c r="N99" s="135">
+        <f t="shared" si="36"/>
+        <v>5.6904862462582001E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="133">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="C100" s="133">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="D100" s="133">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="E100" s="133">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100">
+        <v>5.31211392697667E-2</v>
+      </c>
+      <c r="J100" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="135">
+        <f t="shared" si="33"/>
+        <v>-9.302755699108442E-2</v>
+      </c>
+      <c r="L100" s="135">
+        <f t="shared" si="34"/>
+        <v>4.2862355499699113E-2</v>
+      </c>
+      <c r="M100" s="135">
+        <f t="shared" si="35"/>
+        <v>3.0636144712286525E-2</v>
+      </c>
+      <c r="N100" s="135">
+        <f t="shared" si="36"/>
+        <v>4.2862355499699113E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="133">
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="C101" s="133">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="D101" s="133">
+        <v>0.2495</v>
+      </c>
+      <c r="E101" s="133">
+        <v>0.30580000000000002</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101">
+        <v>0.28608808774064298</v>
+      </c>
+      <c r="J101" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="135">
+        <f t="shared" si="33"/>
+        <v>-4.1835716462647381E-2</v>
+      </c>
+      <c r="L101" s="135">
+        <f t="shared" si="34"/>
+        <v>0.11673946359789143</v>
+      </c>
+      <c r="M101" s="135">
+        <f t="shared" si="35"/>
+        <v>-0.14664564224706605</v>
+      </c>
+      <c r="N101" s="135">
+        <f t="shared" si="36"/>
+        <v>6.4460144733018421E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="134">
+        <v>0.2969</v>
+      </c>
+      <c r="C102" s="134">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D102" s="134">
+        <v>0.2261</v>
+      </c>
+      <c r="E102" s="134">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102">
+        <v>0.27218674082170602</v>
+      </c>
+      <c r="J102" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="K102" s="135">
+        <f t="shared" si="33"/>
+        <v>8.3237653008736881E-2</v>
+      </c>
+      <c r="L102" s="135">
+        <f t="shared" si="34"/>
+        <v>8.6621675094946199E-2</v>
+      </c>
+      <c r="M102" s="135">
+        <f t="shared" si="35"/>
+        <v>-0.20383344016676702</v>
+      </c>
+      <c r="N102" s="135">
+        <f t="shared" si="36"/>
+        <v>1.9146879921780196E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="110"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="152" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J104" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L104" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N104" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="152"/>
+      <c r="B105" s="153"/>
+      <c r="C105" s="153"/>
+      <c r="D105" s="153"/>
+      <c r="E105" s="153"/>
+      <c r="J105" s="152"/>
+      <c r="K105" s="153"/>
+      <c r="L105" s="153"/>
+      <c r="M105" s="153"/>
+      <c r="N105" s="153"/>
+    </row>
+    <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="132">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="C106" s="132">
+        <v>0.2198</v>
+      </c>
+      <c r="D106" s="132">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="E106" s="132">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="G106" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106">
+        <v>0.229059620787608</v>
+      </c>
+      <c r="J106" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" s="135">
+        <f t="shared" ref="K106:K112" si="37">(B106-$H106)/B106</f>
+        <v>1.7754627840445937E-2</v>
+      </c>
+      <c r="L106" s="135">
+        <f t="shared" ref="L106:L112" si="38">(C106-$H106)/C106</f>
+        <v>-4.2127483110136504E-2</v>
+      </c>
+      <c r="M106" s="135">
+        <f t="shared" ref="M106:M112" si="39">(D106-$H106)/D106</f>
+        <v>3.6755169101732599E-2</v>
+      </c>
+      <c r="N106" s="135">
+        <f t="shared" ref="N106:N112" si="40">(E106-$H106)/E106</f>
+        <v>-2.1675382638751059E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="133">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="C107" s="133">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="D107" s="133">
+        <v>0.31019999999999998</v>
+      </c>
+      <c r="E107" s="133">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="G107" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <v>0.31172801730019301</v>
+      </c>
+      <c r="J107" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="K107" s="135">
+        <f t="shared" si="37"/>
+        <v>8.1832093535062628E-3</v>
+      </c>
+      <c r="L107" s="135">
+        <f t="shared" si="38"/>
+        <v>-2.0186991327322979E-3</v>
+      </c>
+      <c r="M107" s="135">
+        <f t="shared" si="39"/>
+        <v>-4.9259100586493548E-3</v>
+      </c>
+      <c r="N107" s="135">
+        <f t="shared" si="40"/>
+        <v>-8.9885467414271402E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="133">
+        <v>0.2525</v>
+      </c>
+      <c r="C108" s="133">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="D108" s="133">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="E108" s="133">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108">
+        <v>0.25039737608971002</v>
+      </c>
+      <c r="J108" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="K108" s="135">
+        <f t="shared" si="37"/>
+        <v>8.3272234070890308E-3</v>
+      </c>
+      <c r="L108" s="135">
+        <f t="shared" si="38"/>
+        <v>-3.0018001191731845E-2</v>
+      </c>
+      <c r="M108" s="135">
+        <f t="shared" si="39"/>
+        <v>2.6448771035342E-2</v>
+      </c>
+      <c r="N108" s="135">
+        <f t="shared" si="40"/>
+        <v>-8.0409665447262971E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="133">
+        <v>0.2286</v>
+      </c>
+      <c r="C109" s="133">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="D109" s="133">
+        <v>0.224</v>
+      </c>
+      <c r="E109" s="133">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="G109" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109">
+        <v>0.22252226872491301</v>
+      </c>
+      <c r="J109" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="135">
+        <f t="shared" si="37"/>
+        <v>2.6586750984632476E-2</v>
+      </c>
+      <c r="L109" s="135">
+        <f t="shared" si="38"/>
+        <v>-1.2846011492548964E-2</v>
+      </c>
+      <c r="M109" s="135">
+        <f t="shared" si="39"/>
+        <v>6.5970146209240665E-3</v>
+      </c>
+      <c r="N109" s="135">
+        <f t="shared" si="40"/>
+        <v>-2.3561493674852822E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="133">
+        <v>0.29160000000000003</v>
+      </c>
+      <c r="C110" s="133">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="D110" s="133">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="E110" s="133">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="G110" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110">
+        <v>0.28854914632845802</v>
+      </c>
+      <c r="J110" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="K110" s="135">
+        <f t="shared" si="37"/>
+        <v>1.0462461150692758E-2</v>
+      </c>
+      <c r="L110" s="135">
+        <f t="shared" si="38"/>
+        <v>1.9054087566309458E-3</v>
+      </c>
+      <c r="M110" s="135">
+        <f t="shared" si="39"/>
+        <v>-6.800929268869489E-3</v>
+      </c>
+      <c r="N110" s="135">
+        <f t="shared" si="40"/>
+        <v>-3.9984214629715667E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="133">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="C111" s="133">
+        <v>0.2203</v>
+      </c>
+      <c r="D111" s="133">
+        <v>0.2356</v>
+      </c>
+      <c r="E111" s="133">
+        <v>0.2225</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111">
+        <v>0.22771302987654801</v>
+      </c>
+      <c r="J111" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="135">
+        <f t="shared" si="37"/>
+        <v>1.5933319461763105E-2</v>
+      </c>
+      <c r="L111" s="135">
+        <f t="shared" si="38"/>
+        <v>-3.3649704387417233E-2</v>
+      </c>
+      <c r="M111" s="135">
+        <f t="shared" si="39"/>
+        <v>3.3476104089354801E-2</v>
+      </c>
+      <c r="N111" s="135">
+        <f t="shared" si="40"/>
+        <v>-2.3429347759766333E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="134">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="C112" s="134">
+        <v>0.187</v>
+      </c>
+      <c r="D112" s="134">
+        <v>0.2072</v>
+      </c>
+      <c r="E112" s="134">
+        <v>0.1963</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112">
+        <v>0.195726814929124</v>
+      </c>
+      <c r="J112" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="K112" s="135">
+        <f t="shared" si="37"/>
+        <v>-2.2606138605663597E-2</v>
+      </c>
+      <c r="L112" s="135">
+        <f t="shared" si="38"/>
+        <v>-4.6667459514032082E-2</v>
+      </c>
+      <c r="M112" s="135">
+        <f t="shared" si="39"/>
+        <v>5.5372514820830103E-2</v>
+      </c>
+      <c r="N112" s="135">
+        <f t="shared" si="40"/>
+        <v>2.9199443243810666E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="110"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J114" s="209" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="181" t="s">
+        <v>73</v>
+      </c>
+      <c r="L114" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="M114" s="181" t="s">
+        <v>3</v>
+      </c>
+      <c r="N114" s="181" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="155"/>
+      <c r="B115" s="153"/>
+      <c r="C115" s="153"/>
+      <c r="D115" s="153"/>
+      <c r="E115" s="153"/>
+      <c r="J115" s="210"/>
+      <c r="K115" s="183"/>
+      <c r="L115" s="183"/>
+      <c r="M115" s="183"/>
+      <c r="N115" s="183"/>
+    </row>
+    <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="114">
+        <v>9.2638999999999996</v>
+      </c>
+      <c r="C116" s="114">
+        <v>9.3228000000000009</v>
+      </c>
+      <c r="D116" s="114">
+        <v>9.2577999999999996</v>
+      </c>
+      <c r="E116" s="114">
+        <v>9.2495999999999992</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116">
+        <v>9.2761700215672107</v>
+      </c>
+      <c r="J116" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K116" s="135">
+        <f t="shared" ref="K116:K122" si="41">(B116-$H116)/B116</f>
+        <v>-1.3244984906153059E-3</v>
+      </c>
+      <c r="L116" s="135">
+        <f t="shared" ref="L116:L122" si="42">(C116-$H116)/C116</f>
+        <v>5.001713909210768E-3</v>
+      </c>
+      <c r="M116" s="135">
+        <f t="shared" ref="M116:M122" si="43">(D116-$H116)/D116</f>
+        <v>-1.9842750510068404E-3</v>
+      </c>
+      <c r="N116" s="135">
+        <f t="shared" ref="N116:N122" si="44">(E116-$H116)/E116</f>
+        <v>-2.8725589827896946E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="114">
+        <v>29.423500000000001</v>
+      </c>
+      <c r="C117" s="114">
+        <v>29.3017</v>
+      </c>
+      <c r="D117" s="114">
+        <v>29.4208</v>
+      </c>
+      <c r="E117" s="114">
+        <v>29.405999999999999</v>
+      </c>
+      <c r="G117" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>29.386153306973299</v>
+      </c>
+      <c r="J117" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K117" s="135">
+        <f t="shared" si="41"/>
+        <v>1.2692811197410957E-3</v>
+      </c>
+      <c r="L117" s="135">
+        <f t="shared" si="42"/>
+        <v>-2.8821981991931601E-3</v>
+      </c>
+      <c r="M117" s="135">
+        <f t="shared" si="43"/>
+        <v>1.1776257962632327E-3</v>
+      </c>
+      <c r="N117" s="135">
+        <f t="shared" si="44"/>
+        <v>6.7491984719786032E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="114">
+        <v>46.189</v>
+      </c>
+      <c r="C118" s="114">
+        <v>46.572000000000003</v>
+      </c>
+      <c r="D118" s="114">
+        <v>46.508000000000003</v>
+      </c>
+      <c r="E118" s="114">
+        <v>46.347200000000001</v>
+      </c>
+      <c r="G118" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118">
+        <v>46.418300467289697</v>
+      </c>
+      <c r="J118" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K118" s="135">
+        <f t="shared" si="41"/>
+        <v>-4.9643955766458898E-3</v>
+      </c>
+      <c r="L118" s="135">
+        <f t="shared" si="42"/>
+        <v>3.300256220697107E-3</v>
+      </c>
+      <c r="M118" s="135">
+        <f t="shared" si="43"/>
+        <v>1.9286903911220781E-3</v>
+      </c>
+      <c r="N118" s="135">
+        <f t="shared" si="44"/>
+        <v>-1.5340833381454805E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="114">
+        <v>59.703299999999999</v>
+      </c>
+      <c r="C119" s="114">
+        <v>59.708100000000002</v>
+      </c>
+      <c r="D119" s="114">
+        <v>59.6524</v>
+      </c>
+      <c r="E119" s="114">
+        <v>59.731099999999998</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119">
+        <v>59.691675664989198</v>
+      </c>
+      <c r="J119" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K119" s="135">
+        <f t="shared" si="41"/>
+        <v>1.9470171683643508E-4</v>
+      </c>
+      <c r="L119" s="135">
+        <f t="shared" si="42"/>
+        <v>2.7507716726547587E-4</v>
+      </c>
+      <c r="M119" s="135">
+        <f t="shared" si="43"/>
+        <v>-6.5840879812376161E-4</v>
+      </c>
+      <c r="N119" s="135">
+        <f t="shared" si="44"/>
+        <v>6.6003028591135767E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="114">
+        <v>37.559199999999997</v>
+      </c>
+      <c r="C120" s="114">
+        <v>38.002699999999997</v>
+      </c>
+      <c r="D120" s="114">
+        <v>38.051400000000001</v>
+      </c>
+      <c r="E120" s="114">
+        <v>38.084299999999999</v>
+      </c>
+      <c r="G120" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120">
+        <v>37.934891480948899</v>
+      </c>
+      <c r="J120" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K120" s="135">
+        <f t="shared" si="41"/>
+        <v>-1.0002648643978089E-2</v>
+      </c>
+      <c r="L120" s="135">
+        <f t="shared" si="42"/>
+        <v>1.7843079320968883E-3</v>
+      </c>
+      <c r="M120" s="135">
+        <f t="shared" si="43"/>
+        <v>3.0618720743810254E-3</v>
+      </c>
+      <c r="N120" s="135">
+        <f t="shared" si="44"/>
+        <v>3.9231000451918534E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="114">
+        <v>12.675000000000001</v>
+      </c>
+      <c r="C121" s="114">
+        <v>12.6646</v>
+      </c>
+      <c r="D121" s="114">
+        <v>12.643800000000001</v>
+      </c>
+      <c r="E121" s="114">
+        <v>12.638400000000001</v>
+      </c>
+      <c r="G121" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121">
+        <v>12.655369734004299</v>
+      </c>
+      <c r="J121" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K121" s="135">
+        <f t="shared" si="41"/>
+        <v>1.5487389345720929E-3</v>
+      </c>
+      <c r="L121" s="135">
+        <f t="shared" si="42"/>
+        <v>7.2882412359653273E-4</v>
+      </c>
+      <c r="M121" s="135">
+        <f t="shared" si="43"/>
+        <v>-9.150519625665414E-4</v>
+      </c>
+      <c r="N121" s="135">
+        <f t="shared" si="44"/>
+        <v>-1.3427122107465095E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="115">
+        <v>34.8491</v>
+      </c>
+      <c r="C122" s="115">
+        <v>35.006900000000002</v>
+      </c>
+      <c r="D122" s="115">
+        <v>34.9133</v>
+      </c>
+      <c r="E122" s="115">
+        <v>34.810899999999997</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122">
+        <v>34.901841552839599</v>
+      </c>
+      <c r="J122" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="K122" s="135">
+        <f t="shared" si="41"/>
+        <v>-1.5134265401287018E-3</v>
+      </c>
+      <c r="L122" s="135">
+        <f t="shared" si="42"/>
+        <v>3.0010782777224656E-3</v>
+      </c>
+      <c r="M122" s="135">
+        <f t="shared" si="43"/>
+        <v>3.2819719592248382E-4</v>
+      </c>
+      <c r="N122" s="135">
+        <f t="shared" si="44"/>
+        <v>-2.612444746892568E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="110"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J124" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="K124" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="L124" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M124" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="N124" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="155"/>
+      <c r="B125" s="153"/>
+      <c r="C125" s="153"/>
+      <c r="D125" s="153"/>
+      <c r="E125" s="153"/>
+      <c r="J125" s="155"/>
+      <c r="K125" s="153"/>
+      <c r="L125" s="153"/>
+      <c r="M125" s="153"/>
+      <c r="N125" s="153"/>
+    </row>
+    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="114">
+        <v>17.7087</v>
+      </c>
+      <c r="C126" s="114">
+        <v>16.7425</v>
+      </c>
+      <c r="D126" s="114">
+        <v>17.146999999999998</v>
+      </c>
+      <c r="E126" s="114">
+        <v>17.017099999999999</v>
+      </c>
+      <c r="G126" t="s">
+        <v>4</v>
+      </c>
+      <c r="H126">
+        <v>17.133665469311701</v>
+      </c>
+      <c r="J126" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="K126" s="135">
+        <f>(B126-$H126)/B126</f>
+        <v>3.2471865844940571E-2</v>
+      </c>
+      <c r="L126" s="135">
+        <f t="shared" ref="L126:L132" si="45">(C126-$H126)/C126</f>
+        <v>-2.3363623670999045E-2</v>
+      </c>
+      <c r="M126" s="135">
+        <f t="shared" ref="M126:M132" si="46">(D126-$H126)/D126</f>
+        <v>7.776596890591512E-4</v>
+      </c>
+      <c r="N126" s="135">
+        <f t="shared" ref="N126:N132" si="47">(E126-$H126)/E126</f>
+        <v>-6.8499021167943994E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="114">
+        <v>22.587</v>
+      </c>
+      <c r="C127" s="114">
+        <v>21.891400000000001</v>
+      </c>
+      <c r="D127" s="114">
+        <v>22.003399999999999</v>
+      </c>
+      <c r="E127" s="114">
+        <v>22.190200000000001</v>
+      </c>
+      <c r="G127" t="s">
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>22.143645747945499</v>
+      </c>
+      <c r="J127" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K127" s="135">
+        <f t="shared" ref="K127:K132" si="48">(B127-$H127)/B127</f>
+        <v>1.9628735646810159E-2</v>
+      </c>
+      <c r="L127" s="135">
+        <f t="shared" si="45"/>
+        <v>-1.1522595537311355E-2</v>
+      </c>
+      <c r="M127" s="135">
+        <f t="shared" si="46"/>
+        <v>-6.373821679626762E-3</v>
+      </c>
+      <c r="N127" s="135">
+        <f t="shared" si="47"/>
+        <v>2.0979645093105129E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="114">
+        <v>19.124500000000001</v>
+      </c>
+      <c r="C128" s="114">
+        <v>18.313700000000001</v>
+      </c>
+      <c r="D128" s="114">
+        <v>18.747599999999998</v>
+      </c>
+      <c r="E128" s="114">
+        <v>18.6309</v>
+      </c>
+      <c r="G128" t="s">
+        <v>6</v>
+      </c>
+      <c r="H128">
+        <v>18.6882381516435</v>
+      </c>
+      <c r="J128" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K128" s="135">
+        <f t="shared" si="48"/>
+        <v>2.2811673421867316E-2</v>
+      </c>
+      <c r="L128" s="135">
+        <f t="shared" si="45"/>
+        <v>-2.0451255161081535E-2</v>
+      </c>
+      <c r="M128" s="135">
+        <f t="shared" si="46"/>
+        <v>3.1663705411091995E-3</v>
+      </c>
+      <c r="N128" s="135">
+        <f t="shared" si="47"/>
+        <v>-3.0775835651256356E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="114">
+        <v>17.998000000000001</v>
+      </c>
+      <c r="C129" s="114">
+        <v>17.330500000000001</v>
+      </c>
+      <c r="D129" s="114">
+        <v>17.265699999999999</v>
+      </c>
+      <c r="E129" s="114">
+        <v>17.415400000000002</v>
+      </c>
+      <c r="G129" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129">
+        <v>17.479678310220802</v>
+      </c>
+      <c r="J129" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" s="135">
+        <f t="shared" si="48"/>
+        <v>2.8798849304322666E-2</v>
+      </c>
+      <c r="L129" s="135">
+        <f t="shared" si="45"/>
+        <v>-8.6078480263582172E-3</v>
+      </c>
+      <c r="M129" s="135">
+        <f t="shared" si="46"/>
+        <v>-1.2393260060165695E-2</v>
+      </c>
+      <c r="N129" s="135">
+        <f t="shared" si="47"/>
+        <v>-3.6908891108329402E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="114">
+        <v>21.484300000000001</v>
+      </c>
+      <c r="C130" s="114">
+        <v>21.207799999999999</v>
+      </c>
+      <c r="D130" s="114">
+        <v>20.943899999999999</v>
+      </c>
+      <c r="E130" s="114">
+        <v>21.264099999999999</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130">
+        <v>21.206435794491501</v>
+      </c>
+      <c r="J130" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K130" s="135">
+        <f t="shared" si="48"/>
+        <v>1.2933360896491861E-2</v>
+      </c>
+      <c r="L130" s="135">
+        <f t="shared" si="45"/>
+        <v>6.4325649454347823E-5</v>
+      </c>
+      <c r="M130" s="135">
+        <f t="shared" si="46"/>
+        <v>-1.2535191367964021E-2</v>
+      </c>
+      <c r="N130" s="135">
+        <f t="shared" si="47"/>
+        <v>2.7118103050915937E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="114">
+        <v>17.724900000000002</v>
+      </c>
+      <c r="C131" s="114">
+        <v>16.903300000000002</v>
+      </c>
+      <c r="D131" s="114">
+        <v>17.136600000000001</v>
+      </c>
+      <c r="E131" s="114">
+        <v>17.0794</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131">
+        <v>17.193057771036599</v>
+      </c>
+      <c r="J131" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="135">
+        <f t="shared" si="48"/>
+        <v>3.0005372609346295E-2</v>
+      </c>
+      <c r="L131" s="135">
+        <f t="shared" si="45"/>
+        <v>-1.7142082968213183E-2</v>
+      </c>
+      <c r="M131" s="135">
+        <f t="shared" si="46"/>
+        <v>-3.2945724960959642E-3</v>
+      </c>
+      <c r="N131" s="135">
+        <f t="shared" si="47"/>
+        <v>-6.654670013970034E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="115">
+        <v>15.0197</v>
+      </c>
+      <c r="C132" s="115">
+        <v>14.1372</v>
+      </c>
+      <c r="D132" s="115">
+        <v>15.007400000000001</v>
+      </c>
+      <c r="E132" s="115">
+        <v>14.7498</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132">
+        <v>14.7145772522898</v>
+      </c>
+      <c r="J132" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="K132" s="135">
+        <f t="shared" si="48"/>
+        <v>2.0314836362257588E-2</v>
+      </c>
+      <c r="L132" s="135">
+        <f t="shared" si="45"/>
+        <v>-4.084099059854851E-2</v>
+      </c>
+      <c r="M132" s="135">
+        <f t="shared" si="46"/>
+        <v>1.9511890647960377E-2</v>
+      </c>
+      <c r="N132" s="135">
+        <f t="shared" si="47"/>
+        <v>2.3880152754749561E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B133" s="110"/>
+    </row>
+  </sheetData>
+  <mergeCells count="122">
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="M124:M125"/>
+    <mergeCell ref="N124:N125"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="N114:N115"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="A91:N92"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="A48:N49"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B10:E16">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:E26">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:E26">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:E30">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:E31">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:E32">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:E33">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:E34">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:E35">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:E36">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:E10">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:N16">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:N16">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:N26">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:N26">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:N36">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:N36">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:E40">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:E41">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:E42">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:E43">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:E44">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:E45">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:E47">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:E47">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:N47">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:N47">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:E59">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:E53">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:N59">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:N59">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A48">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A48">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:E69">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:E69">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:N69">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:N69">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:E73">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:E74">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:E75">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:E76">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:E77">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:E78">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:E79">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:N79">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:N79">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:E83">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:E84">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B85:E85">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86:E86">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87:E87">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88:E88">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89:E89">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:E89">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83:N89">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K83:N89">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:E102">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:E96">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96:N102">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96:N102">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:E112">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:E112">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:N112">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K106:N112">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B116:E116">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B117:E117">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B118:E118">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B119:E119">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120:E120">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:E121">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B122:E122">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:N122">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K116:N122">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:E126">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127:E127">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B128:E128">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:E129">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B130:E130">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131:E131">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132:E132">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B126:E132">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K126:N132">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K126:N132">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>